--- a/repository/CityLevel/县级市.xlsx
+++ b/repository/CityLevel/县级市.xlsx
@@ -8,14 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\Code\csv2InfluxDB\repository\CityLevel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B5BC0905-D061-4462-B1D3-1310A594BA31}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{03FB243E-CE90-4FD8-90E4-991545090019}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3972" yWindow="4032" windowWidth="13956" windowHeight="8856" xr2:uid="{EE7068F5-1E84-4A28-8BF1-4A8A593AAC34}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{EE7068F5-1E84-4A28-8BF1-4A8A593AAC34}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet31" sheetId="31" r:id="rId1"/>
     <sheet name="源数据" sheetId="30" r:id="rId2"/>
     <sheet name="省直辖" sheetId="32" r:id="rId3"/>
+    <sheet name="Sheet1" sheetId="33" r:id="rId4"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet31!$A$1:$B$371</definedName>
@@ -148,7 +149,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1599" uniqueCount="613">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2090" uniqueCount="673">
   <si>
     <t>辛集市</t>
   </si>
@@ -1959,30 +1960,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>省直辖</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>海南省</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>济源市</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>河南省</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>新疆</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>东方市</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>地级市</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1991,15 +1968,227 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>石河子市</t>
+    <t>省直辖县级市</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>419001</t>
+  </si>
+  <si>
+    <t>河南省</t>
+  </si>
+  <si>
+    <t>429004</t>
+  </si>
+  <si>
+    <t>湖北省</t>
+  </si>
+  <si>
+    <t>仙桃市</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>429005</t>
+  </si>
+  <si>
+    <t>潜江市</t>
+  </si>
+  <si>
+    <t>429006</t>
+  </si>
+  <si>
+    <t>天门市</t>
+  </si>
+  <si>
+    <t>469001</t>
+  </si>
+  <si>
+    <t>海南省</t>
+  </si>
+  <si>
+    <t>469002</t>
+  </si>
+  <si>
+    <t>469005</t>
+  </si>
+  <si>
+    <t>469006</t>
+  </si>
+  <si>
+    <t>469007</t>
+  </si>
+  <si>
+    <t>469021</t>
+  </si>
+  <si>
+    <t>定安县</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>省直辖县</t>
+  </si>
+  <si>
+    <t>469022</t>
+  </si>
+  <si>
+    <t>屯昌县</t>
+  </si>
+  <si>
+    <t>469023</t>
+  </si>
+  <si>
+    <t>澄迈县</t>
+  </si>
+  <si>
+    <t>469024</t>
+  </si>
+  <si>
+    <t>临高县</t>
+  </si>
+  <si>
+    <t>469025</t>
+  </si>
+  <si>
+    <t>白沙黎族自治县</t>
+  </si>
+  <si>
+    <t>469026</t>
+  </si>
+  <si>
+    <t>昌江黎族自治县</t>
+  </si>
+  <si>
+    <t>469027</t>
+  </si>
+  <si>
+    <t>乐东黎族自治县</t>
+  </si>
+  <si>
+    <t>469028</t>
+  </si>
+  <si>
+    <t>陵水黎族自治县</t>
+  </si>
+  <si>
+    <t>469029</t>
+  </si>
+  <si>
+    <t>保亭黎族苗族自治县</t>
+  </si>
+  <si>
+    <t>469030</t>
+  </si>
+  <si>
+    <t>琼中黎族苗族自治县</t>
+  </si>
+  <si>
+    <t>659001</t>
+  </si>
+  <si>
+    <t>新疆</t>
+  </si>
+  <si>
+    <t>659002</t>
+  </si>
+  <si>
+    <t>659003</t>
+  </si>
+  <si>
+    <t>659004</t>
+  </si>
+  <si>
+    <t>659005</t>
+  </si>
+  <si>
+    <t>北屯市</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>659006</t>
+  </si>
+  <si>
+    <t>659007</t>
+  </si>
+  <si>
+    <t>659008</t>
+  </si>
+  <si>
+    <t>659009</t>
+  </si>
+  <si>
+    <t>659010</t>
+  </si>
+  <si>
+    <t>429021</t>
+  </si>
+  <si>
+    <t>神农架林区</t>
+  </si>
+  <si>
+    <t>儋州市</t>
+  </si>
+  <si>
+    <t>东莞市</t>
+  </si>
+  <si>
+    <t>嘉峪关市</t>
+  </si>
+  <si>
+    <t>龙南市</t>
+  </si>
+  <si>
+    <t>沙市区</t>
+  </si>
+  <si>
+    <t>辛集市</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>区县</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>安丘区</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>昌邑市</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>大安市</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>东兴市</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>海城市</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>和田市</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>临夏市</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>栖霞市</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>伊宁市</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>新市区</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>北屯市</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>胡杨河市</t>
+    <t>龙南市</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2007,7 +2196,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2023,16 +2212,48 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Microsoft YaHei Light"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="微软雅黑"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -2040,24 +2261,58 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="常规 2" xfId="1" xr:uid="{B7CD63F9-1733-4969-A58D-30A19A820182}"/>
   </cellStyles>
-  <dxfs count="52">
+  <dxfs count="53">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
     </dxf>
@@ -2517,8 +2772,8 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="27" xr:uid="{C67FD86F-C944-4DAB-B79D-FFD275767167}" name="安徽省_9个" displayName="安徽省_9个" ref="A1:B10" tableType="queryTable" totalsRowShown="0">
   <autoFilter ref="A1:B10" xr:uid="{ECBB10CC-E563-491F-AFAA-D72D57C49854}"/>
   <tableColumns count="2">
-    <tableColumn id="1" xr3:uid="{95D0CBD3-A5CF-4FCB-90FD-6A62C8A6ED9F}" uniqueName="1" name="地级市" queryTableFieldId="1" dataDxfId="51"/>
-    <tableColumn id="2" xr3:uid="{4F858813-79E3-45AC-80F4-8D5B2D94D0A4}" uniqueName="2" name="县级市" queryTableFieldId="2" dataDxfId="50"/>
+    <tableColumn id="1" xr3:uid="{95D0CBD3-A5CF-4FCB-90FD-6A62C8A6ED9F}" uniqueName="1" name="地级市" queryTableFieldId="1" dataDxfId="52"/>
+    <tableColumn id="2" xr3:uid="{4F858813-79E3-45AC-80F4-8D5B2D94D0A4}" uniqueName="2" name="县级市" queryTableFieldId="2" dataDxfId="51"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -2528,8 +2783,8 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="36" xr:uid="{5EF6598F-F5EB-4E61-901E-08121D7B0BE9}" name="黑龙江省_21个" displayName="黑龙江省_21个" ref="A122:B143" tableType="queryTable" totalsRowShown="0">
   <autoFilter ref="A122:B143" xr:uid="{753A82AB-788F-4BA5-A0F5-20255BD40D77}"/>
   <tableColumns count="2">
-    <tableColumn id="1" xr3:uid="{7993E7F0-E003-4060-9225-9B4A33553E88}" uniqueName="1" name="地级市/地区" queryTableFieldId="1" dataDxfId="33"/>
-    <tableColumn id="2" xr3:uid="{43986AA0-3B56-4939-8294-7AC19A19F0D2}" uniqueName="2" name="县级市" queryTableFieldId="2" dataDxfId="32"/>
+    <tableColumn id="1" xr3:uid="{7993E7F0-E003-4060-9225-9B4A33553E88}" uniqueName="1" name="地级市/地区" queryTableFieldId="1" dataDxfId="34"/>
+    <tableColumn id="2" xr3:uid="{43986AA0-3B56-4939-8294-7AC19A19F0D2}" uniqueName="2" name="县级市" queryTableFieldId="2" dataDxfId="33"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -2539,8 +2794,8 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="37" xr:uid="{BFF4E845-73A2-4141-B5DE-A28F6B92D952}" name="湖北省_26个" displayName="湖北省_26个" ref="A144:B167" tableType="queryTable" totalsRowShown="0">
   <autoFilter ref="A144:B167" xr:uid="{A389DD38-F617-460B-B918-AE47CFBC333A}"/>
   <tableColumns count="2">
-    <tableColumn id="1" xr3:uid="{2763AC3D-5DE9-4DFF-AB28-2705B5C92399}" uniqueName="1" name="地级市/自治州/省直辖" queryTableFieldId="1" dataDxfId="31"/>
-    <tableColumn id="2" xr3:uid="{56A19C26-18E7-4E00-9F60-DDBB94D70706}" uniqueName="2" name="县级市" queryTableFieldId="2" dataDxfId="30"/>
+    <tableColumn id="1" xr3:uid="{2763AC3D-5DE9-4DFF-AB28-2705B5C92399}" uniqueName="1" name="地级市/自治州/省直辖" queryTableFieldId="1" dataDxfId="32"/>
+    <tableColumn id="2" xr3:uid="{56A19C26-18E7-4E00-9F60-DDBB94D70706}" uniqueName="2" name="县级市" queryTableFieldId="2" dataDxfId="31"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -2550,8 +2805,8 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="38" xr:uid="{E41967E1-A191-4C4D-A63A-A9F4D236706F}" name="湖南省_18个" displayName="湖南省_18个" ref="A168:B186" tableType="queryTable" totalsRowShown="0">
   <autoFilter ref="A168:B186" xr:uid="{E1B11430-E24E-4489-A781-F1D09A7BA65B}"/>
   <tableColumns count="2">
-    <tableColumn id="1" xr3:uid="{09E1E529-02ED-4B30-A9CE-C15D4425FC7D}" uniqueName="1" name="地级市/自治州" queryTableFieldId="1" dataDxfId="29"/>
-    <tableColumn id="2" xr3:uid="{75EEA57C-03F6-4D0D-A186-20DF0BA465CB}" uniqueName="2" name="县级市" queryTableFieldId="2" dataDxfId="28"/>
+    <tableColumn id="1" xr3:uid="{09E1E529-02ED-4B30-A9CE-C15D4425FC7D}" uniqueName="1" name="地级市/自治州" queryTableFieldId="1" dataDxfId="30"/>
+    <tableColumn id="2" xr3:uid="{75EEA57C-03F6-4D0D-A186-20DF0BA465CB}" uniqueName="2" name="县级市" queryTableFieldId="2" dataDxfId="29"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -2561,8 +2816,8 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="39" xr:uid="{18CE0BFB-E908-43DD-A8E0-4F19F34C0CD8}" name="吉林省_20个" displayName="吉林省_20个" ref="A187:B207" tableType="queryTable" totalsRowShown="0">
   <autoFilter ref="A187:B207" xr:uid="{7E801347-4C62-4B93-B183-8C44693BEC35}"/>
   <tableColumns count="2">
-    <tableColumn id="1" xr3:uid="{28BA488A-E1E2-4FB1-9C40-7FCC2766839C}" uniqueName="1" name="地级市/自治州" queryTableFieldId="1" dataDxfId="27"/>
-    <tableColumn id="2" xr3:uid="{B002B0F4-300C-4C4F-8813-5F124F6FD32F}" uniqueName="2" name="县级市" queryTableFieldId="2" dataDxfId="26"/>
+    <tableColumn id="1" xr3:uid="{28BA488A-E1E2-4FB1-9C40-7FCC2766839C}" uniqueName="1" name="地级市/自治州" queryTableFieldId="1" dataDxfId="28"/>
+    <tableColumn id="2" xr3:uid="{B002B0F4-300C-4C4F-8813-5F124F6FD32F}" uniqueName="2" name="县级市" queryTableFieldId="2" dataDxfId="27"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -2572,8 +2827,8 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="40" xr:uid="{FD59237B-2AFF-4805-A1F2-5D25CCEBB08B}" name="江苏省_21个" displayName="江苏省_21个" ref="A208:B229" tableType="queryTable" totalsRowShown="0">
   <autoFilter ref="A208:B229" xr:uid="{F67222EB-2609-4795-9A2D-83CF31CB35B2}"/>
   <tableColumns count="2">
-    <tableColumn id="1" xr3:uid="{91A3297B-A50D-4110-85CC-AC549E027068}" uniqueName="1" name="地级市" queryTableFieldId="1" dataDxfId="25"/>
-    <tableColumn id="2" xr3:uid="{776515D9-38F3-4C51-A87A-8D64CF61D68F}" uniqueName="2" name="县级市" queryTableFieldId="2" dataDxfId="24"/>
+    <tableColumn id="1" xr3:uid="{91A3297B-A50D-4110-85CC-AC549E027068}" uniqueName="1" name="地级市" queryTableFieldId="1" dataDxfId="26"/>
+    <tableColumn id="2" xr3:uid="{776515D9-38F3-4C51-A87A-8D64CF61D68F}" uniqueName="2" name="县级市" queryTableFieldId="2" dataDxfId="25"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -2583,8 +2838,8 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="41" xr:uid="{92E9DCA3-A578-4FC6-94F3-F7EA23611875}" name="江西省_12个" displayName="江西省_12个" ref="A230:B242" tableType="queryTable" totalsRowShown="0">
   <autoFilter ref="A230:B242" xr:uid="{609E80E9-37F1-4509-8AC9-850FAF89448C}"/>
   <tableColumns count="2">
-    <tableColumn id="1" xr3:uid="{F0E12767-08E7-4A85-A23A-455242CA7AE8}" uniqueName="1" name="地级市" queryTableFieldId="1" dataDxfId="23"/>
-    <tableColumn id="2" xr3:uid="{046B7348-0170-4E92-9525-F8EF6F344365}" uniqueName="2" name="县级市" queryTableFieldId="2" dataDxfId="22"/>
+    <tableColumn id="1" xr3:uid="{F0E12767-08E7-4A85-A23A-455242CA7AE8}" uniqueName="1" name="地级市" queryTableFieldId="1" dataDxfId="24"/>
+    <tableColumn id="2" xr3:uid="{046B7348-0170-4E92-9525-F8EF6F344365}" uniqueName="2" name="县级市" queryTableFieldId="2" dataDxfId="23"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -2594,8 +2849,8 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="42" xr:uid="{F253059F-577E-49CF-A059-D81135F60E8B}" name="辽宁省_16个" displayName="辽宁省_16个" ref="A243:B259" tableType="queryTable" totalsRowShown="0">
   <autoFilter ref="A243:B259" xr:uid="{114FC1BF-3EC2-4664-A44A-9EE41FF795C7}"/>
   <tableColumns count="2">
-    <tableColumn id="1" xr3:uid="{52583F62-7F3B-4BE7-8B88-D3E388A5E6E8}" uniqueName="1" name="地级市" queryTableFieldId="1" dataDxfId="21"/>
-    <tableColumn id="2" xr3:uid="{BE880966-20D9-4DF6-B873-95F40119130E}" uniqueName="2" name="县级市" queryTableFieldId="2" dataDxfId="20"/>
+    <tableColumn id="1" xr3:uid="{52583F62-7F3B-4BE7-8B88-D3E388A5E6E8}" uniqueName="1" name="地级市" queryTableFieldId="1" dataDxfId="22"/>
+    <tableColumn id="2" xr3:uid="{BE880966-20D9-4DF6-B873-95F40119130E}" uniqueName="2" name="县级市" queryTableFieldId="2" dataDxfId="21"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -2605,8 +2860,8 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="43" xr:uid="{15E5F782-33F5-46AB-A5E6-24F5E06A2742}" name="内蒙古自治区_11个" displayName="内蒙古自治区_11个" ref="A260:B271" tableType="queryTable" totalsRowShown="0">
   <autoFilter ref="A260:B271" xr:uid="{5BE65E1E-8078-4947-A786-C8276306ACE3}"/>
   <tableColumns count="2">
-    <tableColumn id="1" xr3:uid="{EC1D03DD-58A2-4E99-ABA6-4F0A410945A7}" uniqueName="1" name="地级市/盟" queryTableFieldId="1" dataDxfId="19"/>
-    <tableColumn id="2" xr3:uid="{7971537C-2C47-4982-A011-A36CF71F8FD1}" uniqueName="2" name="县级市" queryTableFieldId="2" dataDxfId="18"/>
+    <tableColumn id="1" xr3:uid="{EC1D03DD-58A2-4E99-ABA6-4F0A410945A7}" uniqueName="1" name="地级市/盟" queryTableFieldId="1" dataDxfId="20"/>
+    <tableColumn id="2" xr3:uid="{7971537C-2C47-4982-A011-A36CF71F8FD1}" uniqueName="2" name="县级市" queryTableFieldId="2" dataDxfId="19"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -2616,8 +2871,8 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="44" xr:uid="{F24C97ED-952A-4B9A-87BA-85CEA9657ED9}" name="宁夏回族自治区_2个" displayName="宁夏回族自治区_2个" ref="A272:B274" tableType="queryTable" totalsRowShown="0">
   <autoFilter ref="A272:B274" xr:uid="{32EF0515-EB02-4855-B0E4-0C0C493B412B}"/>
   <tableColumns count="2">
-    <tableColumn id="1" xr3:uid="{10D3CB69-CC61-4ABA-AA1D-9B35994B590D}" uniqueName="1" name="地级市" queryTableFieldId="1" dataDxfId="17"/>
-    <tableColumn id="2" xr3:uid="{93B3C750-F75C-4594-BE30-7CF1371C945D}" uniqueName="2" name="县级市" queryTableFieldId="2" dataDxfId="16"/>
+    <tableColumn id="1" xr3:uid="{10D3CB69-CC61-4ABA-AA1D-9B35994B590D}" uniqueName="1" name="地级市" queryTableFieldId="1" dataDxfId="18"/>
+    <tableColumn id="2" xr3:uid="{93B3C750-F75C-4594-BE30-7CF1371C945D}" uniqueName="2" name="县级市" queryTableFieldId="2" dataDxfId="17"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -2627,8 +2882,8 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="45" xr:uid="{D2BDC16A-9848-4CCE-9629-AA6EE758AE83}" name="青海省_5个" displayName="青海省_5个" ref="A275:B280" tableType="queryTable" totalsRowShown="0">
   <autoFilter ref="A275:B280" xr:uid="{29A3FA39-7931-4172-8068-C61B2D67D567}"/>
   <tableColumns count="2">
-    <tableColumn id="1" xr3:uid="{528E107B-487B-4054-8DB6-DA6E8FB234AB}" uniqueName="1" name="自治州" queryTableFieldId="1" dataDxfId="15"/>
-    <tableColumn id="2" xr3:uid="{5339AC24-9177-415E-ADA2-924D523730FB}" uniqueName="2" name="县级市" queryTableFieldId="2" dataDxfId="14"/>
+    <tableColumn id="1" xr3:uid="{528E107B-487B-4054-8DB6-DA6E8FB234AB}" uniqueName="1" name="自治州" queryTableFieldId="1" dataDxfId="16"/>
+    <tableColumn id="2" xr3:uid="{5339AC24-9177-415E-ADA2-924D523730FB}" uniqueName="2" name="县级市" queryTableFieldId="2" dataDxfId="15"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -2638,8 +2893,8 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="28" xr:uid="{4663BC08-3E07-4CCA-A530-CBFF272E3810}" name="福建省_12个" displayName="福建省_12个" ref="A11:B23" tableType="queryTable" totalsRowShown="0">
   <autoFilter ref="A11:B23" xr:uid="{B2F4CF89-FDDC-4F3A-B609-D49E1D7BC295}"/>
   <tableColumns count="2">
-    <tableColumn id="1" xr3:uid="{822C49A8-B04B-4E51-B271-CB4996EB0A36}" uniqueName="1" name="地级市" queryTableFieldId="1" dataDxfId="49"/>
-    <tableColumn id="2" xr3:uid="{D97156D5-EC39-42FF-BB5C-30AF722E1380}" uniqueName="2" name="县级市" queryTableFieldId="2" dataDxfId="48"/>
+    <tableColumn id="1" xr3:uid="{822C49A8-B04B-4E51-B271-CB4996EB0A36}" uniqueName="1" name="地级市" queryTableFieldId="1" dataDxfId="50"/>
+    <tableColumn id="2" xr3:uid="{D97156D5-EC39-42FF-BB5C-30AF722E1380}" uniqueName="2" name="县级市" queryTableFieldId="2" dataDxfId="49"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -2649,8 +2904,8 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="46" xr:uid="{C8189FEA-8836-438B-B47F-E1817B59D4F5}" name="山东省_26个" displayName="山东省_26个" ref="A281:B307" tableType="queryTable" totalsRowShown="0">
   <autoFilter ref="A281:B307" xr:uid="{98B16845-265C-4CFE-8C9E-0686007C6875}"/>
   <tableColumns count="2">
-    <tableColumn id="1" xr3:uid="{5ED92AFB-6436-43A9-92A9-F578E95E6EC3}" uniqueName="1" name="地级市" queryTableFieldId="1" dataDxfId="13"/>
-    <tableColumn id="2" xr3:uid="{809362D8-5C58-4835-8612-F3C8241618F3}" uniqueName="2" name="县级市" queryTableFieldId="2" dataDxfId="12"/>
+    <tableColumn id="1" xr3:uid="{5ED92AFB-6436-43A9-92A9-F578E95E6EC3}" uniqueName="1" name="地级市" queryTableFieldId="1" dataDxfId="14"/>
+    <tableColumn id="2" xr3:uid="{809362D8-5C58-4835-8612-F3C8241618F3}" uniqueName="2" name="县级市" queryTableFieldId="2" dataDxfId="13"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -2660,8 +2915,8 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="47" xr:uid="{3B7DCF09-4B19-4ADA-A3D0-C1C1B310E36B}" name="山西省_11个" displayName="山西省_11个" ref="A308:B319" tableType="queryTable" totalsRowShown="0">
   <autoFilter ref="A308:B319" xr:uid="{48BBAC93-2702-4DFE-B166-AF60B0E21D3F}"/>
   <tableColumns count="2">
-    <tableColumn id="1" xr3:uid="{5733E2F4-0C55-4522-9AB9-5B138CEB0757}" uniqueName="1" name="地级市" queryTableFieldId="1" dataDxfId="11"/>
-    <tableColumn id="2" xr3:uid="{6D0B0365-85D4-4C94-87C8-5279E88A5202}" uniqueName="2" name="县级市" queryTableFieldId="2" dataDxfId="10"/>
+    <tableColumn id="1" xr3:uid="{5733E2F4-0C55-4522-9AB9-5B138CEB0757}" uniqueName="1" name="地级市" queryTableFieldId="1" dataDxfId="12"/>
+    <tableColumn id="2" xr3:uid="{6D0B0365-85D4-4C94-87C8-5279E88A5202}" uniqueName="2" name="县级市" queryTableFieldId="2" dataDxfId="11"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -2671,8 +2926,8 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="48" xr:uid="{87B52060-E39C-4BAA-8D50-D872FF1458D8}" name="陕西省_6个" displayName="陕西省_6个" ref="A320:B326" tableType="queryTable" totalsRowShown="0">
   <autoFilter ref="A320:B326" xr:uid="{72840A12-EEEE-4B72-BFC8-544B791B093D}"/>
   <tableColumns count="2">
-    <tableColumn id="1" xr3:uid="{6B85542A-95A6-431A-82F8-DBA8B65F55C8}" uniqueName="1" name="地级市" queryTableFieldId="1" dataDxfId="9"/>
-    <tableColumn id="2" xr3:uid="{D3C9DC70-EB3F-486B-A45B-15F775288148}" uniqueName="2" name="县级市" queryTableFieldId="2" dataDxfId="8"/>
+    <tableColumn id="1" xr3:uid="{6B85542A-95A6-431A-82F8-DBA8B65F55C8}" uniqueName="1" name="地级市" queryTableFieldId="1" dataDxfId="10"/>
+    <tableColumn id="2" xr3:uid="{D3C9DC70-EB3F-486B-A45B-15F775288148}" uniqueName="2" name="县级市" queryTableFieldId="2" dataDxfId="9"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -2682,8 +2937,8 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="49" xr:uid="{062584B7-015B-429B-97AF-DABA01E2671C}" name="四川省_18个" displayName="四川省_18个" ref="A327:B345" tableType="queryTable" totalsRowShown="0">
   <autoFilter ref="A327:B345" xr:uid="{8CEA49BA-D7F4-4729-9B78-E2D357658CBE}"/>
   <tableColumns count="2">
-    <tableColumn id="1" xr3:uid="{7C3D3736-8742-4672-97C4-B4560312A0BC}" uniqueName="1" name="地级市/自治州" queryTableFieldId="1" dataDxfId="7"/>
-    <tableColumn id="2" xr3:uid="{604CFDC2-4A5F-412C-B0D9-EF707F974645}" uniqueName="2" name="县级市" queryTableFieldId="2" dataDxfId="6"/>
+    <tableColumn id="1" xr3:uid="{7C3D3736-8742-4672-97C4-B4560312A0BC}" uniqueName="1" name="地级市/自治州" queryTableFieldId="1" dataDxfId="8"/>
+    <tableColumn id="2" xr3:uid="{604CFDC2-4A5F-412C-B0D9-EF707F974645}" uniqueName="2" name="县级市" queryTableFieldId="2" dataDxfId="7"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -2693,8 +2948,8 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="50" xr:uid="{28F563C6-7A21-4521-888A-00E4807C35D0}" name="新疆维吾尔自治区_26个" displayName="新疆维吾尔自治区_26个" ref="A346:B372" tableType="queryTable" totalsRowShown="0">
   <autoFilter ref="A346:B372" xr:uid="{F729A42D-4C12-43C2-BBFE-93248123455B}"/>
   <tableColumns count="2">
-    <tableColumn id="1" xr3:uid="{0B3A51FC-45E9-4439-AD14-5B3991E9C006}" uniqueName="1" name="地区/自治州/自治区直辖" queryTableFieldId="1" dataDxfId="5"/>
-    <tableColumn id="2" xr3:uid="{AB5AA7A9-6B3F-49A8-91D3-E6AD0EA7E75A}" uniqueName="2" name="县级市" queryTableFieldId="2" dataDxfId="4"/>
+    <tableColumn id="1" xr3:uid="{0B3A51FC-45E9-4439-AD14-5B3991E9C006}" uniqueName="1" name="地区/自治州/自治区直辖" queryTableFieldId="1" dataDxfId="6"/>
+    <tableColumn id="2" xr3:uid="{AB5AA7A9-6B3F-49A8-91D3-E6AD0EA7E75A}" uniqueName="2" name="县级市" queryTableFieldId="2" dataDxfId="5"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -2704,8 +2959,8 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="51" xr:uid="{55B214C4-44A3-436C-A4D8-7C2B1713D0E2}" name="云南省_17个" displayName="云南省_17个" ref="A373:B390" tableType="queryTable" totalsRowShown="0">
   <autoFilter ref="A373:B390" xr:uid="{C29DEB16-158A-4C04-9530-9B7E7EA95997}"/>
   <tableColumns count="2">
-    <tableColumn id="1" xr3:uid="{6D8FE270-BDE6-49C8-99AA-BF0A6775CFC7}" uniqueName="1" name="地级市/自治州" queryTableFieldId="1" dataDxfId="3"/>
-    <tableColumn id="2" xr3:uid="{611C162B-254C-4B18-BC8F-400E842EF2B4}" uniqueName="2" name="县级市" queryTableFieldId="2" dataDxfId="2"/>
+    <tableColumn id="1" xr3:uid="{6D8FE270-BDE6-49C8-99AA-BF0A6775CFC7}" uniqueName="1" name="地级市/自治州" queryTableFieldId="1" dataDxfId="4"/>
+    <tableColumn id="2" xr3:uid="{611C162B-254C-4B18-BC8F-400E842EF2B4}" uniqueName="2" name="县级市" queryTableFieldId="2" dataDxfId="3"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -2715,8 +2970,8 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="52" xr:uid="{31C44ABE-B74A-435B-BBBA-1744AD4C48A6}" name="浙江省_20个" displayName="浙江省_20个" ref="A391:B411" tableType="queryTable" totalsRowShown="0">
   <autoFilter ref="A391:B411" xr:uid="{395E335F-AFA1-4FA1-8655-D1BE19F70392}"/>
   <tableColumns count="2">
-    <tableColumn id="1" xr3:uid="{3071A46F-C7D1-4399-A43E-6E8F644DA0F6}" uniqueName="1" name="地级市" queryTableFieldId="1" dataDxfId="1"/>
-    <tableColumn id="2" xr3:uid="{43854209-EB77-4977-8CFC-BA089CB5229A}" uniqueName="2" name="县级市" queryTableFieldId="2" dataDxfId="0"/>
+    <tableColumn id="1" xr3:uid="{3071A46F-C7D1-4399-A43E-6E8F644DA0F6}" uniqueName="1" name="地级市" queryTableFieldId="1" dataDxfId="2"/>
+    <tableColumn id="2" xr3:uid="{43854209-EB77-4977-8CFC-BA089CB5229A}" uniqueName="2" name="县级市" queryTableFieldId="2" dataDxfId="1"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -2726,8 +2981,8 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="29" xr:uid="{76F98CB1-C808-4301-A868-690807D8AA79}" name="甘肃省_5个" displayName="甘肃省_5个" ref="A24:B29" tableType="queryTable" totalsRowShown="0">
   <autoFilter ref="A24:B29" xr:uid="{9BF2E299-D1A2-44CB-813F-964CAC581900}"/>
   <tableColumns count="2">
-    <tableColumn id="1" xr3:uid="{9B6E2EEB-CBBB-4A96-A98B-AA9405432A51}" uniqueName="1" name="地级市" queryTableFieldId="1" dataDxfId="47"/>
-    <tableColumn id="2" xr3:uid="{B64552B7-E0DB-407D-970A-EB3781A0F126}" uniqueName="2" name="县级市" queryTableFieldId="2" dataDxfId="46"/>
+    <tableColumn id="1" xr3:uid="{9B6E2EEB-CBBB-4A96-A98B-AA9405432A51}" uniqueName="1" name="地级市" queryTableFieldId="1" dataDxfId="48"/>
+    <tableColumn id="2" xr3:uid="{B64552B7-E0DB-407D-970A-EB3781A0F126}" uniqueName="2" name="县级市" queryTableFieldId="2" dataDxfId="47"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -2737,8 +2992,8 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="30" xr:uid="{56C69C0D-2CF6-4208-BEAD-EDB79D771598}" name="广东省_20个" displayName="广东省_20个" ref="A30:B50" tableType="queryTable" totalsRowShown="0">
   <autoFilter ref="A30:B50" xr:uid="{E2C45C68-1A0E-45E9-ADFC-B500086770FC}"/>
   <tableColumns count="2">
-    <tableColumn id="1" xr3:uid="{A9D6DD2C-589D-4418-B7F4-3DCAA48CBD73}" uniqueName="1" name="地级市" queryTableFieldId="1" dataDxfId="45"/>
-    <tableColumn id="2" xr3:uid="{8F84B63D-CB09-4E81-8CCF-FAEC7AA92059}" uniqueName="2" name="县级市" queryTableFieldId="2" dataDxfId="44"/>
+    <tableColumn id="1" xr3:uid="{A9D6DD2C-589D-4418-B7F4-3DCAA48CBD73}" uniqueName="1" name="地级市" queryTableFieldId="1" dataDxfId="46"/>
+    <tableColumn id="2" xr3:uid="{8F84B63D-CB09-4E81-8CCF-FAEC7AA92059}" uniqueName="2" name="县级市" queryTableFieldId="2" dataDxfId="45"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -2748,8 +3003,8 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="31" xr:uid="{ACED29BA-952B-4D01-A88A-25F8A9B5854F}" name="广西壮族自治区_9个" displayName="广西壮族自治区_9个" ref="A51:B60" tableType="queryTable" totalsRowShown="0">
   <autoFilter ref="A51:B60" xr:uid="{1DAE7B70-84A9-4D80-9D91-CD5479073DC0}"/>
   <tableColumns count="2">
-    <tableColumn id="1" xr3:uid="{C026CD0E-4D30-47B1-A7E4-0DF9E3680E1B}" uniqueName="1" name="地级市" queryTableFieldId="1" dataDxfId="43"/>
-    <tableColumn id="2" xr3:uid="{BB58A4F6-4F99-4660-8FCD-D12761A6E5E2}" uniqueName="2" name="县级市" queryTableFieldId="2" dataDxfId="42"/>
+    <tableColumn id="1" xr3:uid="{C026CD0E-4D30-47B1-A7E4-0DF9E3680E1B}" uniqueName="1" name="地级市" queryTableFieldId="1" dataDxfId="44"/>
+    <tableColumn id="2" xr3:uid="{BB58A4F6-4F99-4660-8FCD-D12761A6E5E2}" uniqueName="2" name="县级市" queryTableFieldId="2" dataDxfId="43"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -2759,8 +3014,8 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="32" xr:uid="{E86EE07A-19A6-4941-A036-C8014CA0F4A1}" name="贵州省_9个" displayName="贵州省_9个" ref="A61:B70" tableType="queryTable" totalsRowShown="0">
   <autoFilter ref="A61:B70" xr:uid="{0C744B48-5B72-495E-B31E-C0B17FED798B}"/>
   <tableColumns count="2">
-    <tableColumn id="1" xr3:uid="{9912B5B8-A613-405B-89F8-32127E28CA02}" uniqueName="1" name="地级市" queryTableFieldId="1" dataDxfId="41"/>
-    <tableColumn id="2" xr3:uid="{E3DA4F82-249E-4B3F-A82F-48FA0E24CCE3}" uniqueName="2" name="县级市" queryTableFieldId="2" dataDxfId="40"/>
+    <tableColumn id="1" xr3:uid="{9912B5B8-A613-405B-89F8-32127E28CA02}" uniqueName="1" name="地级市" queryTableFieldId="1" dataDxfId="42"/>
+    <tableColumn id="2" xr3:uid="{E3DA4F82-249E-4B3F-A82F-48FA0E24CCE3}" uniqueName="2" name="县级市" queryTableFieldId="2" dataDxfId="41"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -2770,8 +3025,8 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="33" xr:uid="{7E547AB5-3B5C-4A38-9142-0BA90A5B8FB7}" name="海南省_5个" displayName="海南省_5个" ref="A71:B76" tableType="queryTable" totalsRowShown="0">
   <autoFilter ref="A71:B76" xr:uid="{2228012F-E608-4297-B51F-141FB40905A0}"/>
   <tableColumns count="2">
-    <tableColumn id="1" xr3:uid="{60EBF207-AECF-4A4C-8602-FB5113396204}" uniqueName="1" name="省直辖" queryTableFieldId="1" dataDxfId="39"/>
-    <tableColumn id="2" xr3:uid="{FE990E71-9AA3-4168-B798-010BAA460AD6}" uniqueName="2" name="县级市" queryTableFieldId="2" dataDxfId="38"/>
+    <tableColumn id="1" xr3:uid="{60EBF207-AECF-4A4C-8602-FB5113396204}" uniqueName="1" name="省直辖" queryTableFieldId="1" dataDxfId="40"/>
+    <tableColumn id="2" xr3:uid="{FE990E71-9AA3-4168-B798-010BAA460AD6}" uniqueName="2" name="县级市" queryTableFieldId="2" dataDxfId="39"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -2781,8 +3036,8 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="34" xr:uid="{B7F836E8-CA25-4AB9-9597-EEC9CC99AEB6}" name="河北省_21个" displayName="河北省_21个" ref="A77:B98" tableType="queryTable" totalsRowShown="0">
   <autoFilter ref="A77:B98" xr:uid="{63B7C99A-07BB-4019-8470-16711ED1F167}"/>
   <tableColumns count="2">
-    <tableColumn id="1" xr3:uid="{B7D6ADA4-39DC-49E2-94AE-F2A9CD20CF15}" uniqueName="1" name="地级市" queryTableFieldId="1" dataDxfId="37"/>
-    <tableColumn id="2" xr3:uid="{D5E40F1E-043C-4FDD-AF1D-A2B0CEFBE00D}" uniqueName="2" name="县级市" queryTableFieldId="2" dataDxfId="36"/>
+    <tableColumn id="1" xr3:uid="{B7D6ADA4-39DC-49E2-94AE-F2A9CD20CF15}" uniqueName="1" name="地级市" queryTableFieldId="1" dataDxfId="38"/>
+    <tableColumn id="2" xr3:uid="{D5E40F1E-043C-4FDD-AF1D-A2B0CEFBE00D}" uniqueName="2" name="县级市" queryTableFieldId="2" dataDxfId="37"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -2792,8 +3047,8 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="35" xr:uid="{72B60805-68A0-428F-A50D-5C14D2919062}" name="河南省_22个" displayName="河南省_22个" ref="A99:B121" tableType="queryTable" totalsRowShown="0">
   <autoFilter ref="A99:B121" xr:uid="{3B5E8672-CD4D-4BBE-8D00-35ADAEBE45F3}"/>
   <tableColumns count="2">
-    <tableColumn id="1" xr3:uid="{984E4572-A7B7-4136-8F9B-4C624EBD4CFD}" uniqueName="1" name="地级市/省直辖" queryTableFieldId="1" dataDxfId="35"/>
-    <tableColumn id="2" xr3:uid="{DDE3C263-086B-4D2E-8516-B1E8FE11F876}" uniqueName="2" name="县级市" queryTableFieldId="2" dataDxfId="34"/>
+    <tableColumn id="1" xr3:uid="{984E4572-A7B7-4136-8F9B-4C624EBD4CFD}" uniqueName="1" name="地级市/省直辖" queryTableFieldId="1" dataDxfId="36"/>
+    <tableColumn id="2" xr3:uid="{DDE3C263-086B-4D2E-8516-B1E8FE11F876}" uniqueName="2" name="县级市" queryTableFieldId="2" dataDxfId="35"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -3096,10 +3351,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8AE15581-BB22-40E6-B751-6EC06648176A}">
-  <dimension ref="A1:B371"/>
+  <dimension ref="A1:D371"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+    <sheetView tabSelected="1" topLeftCell="A361" workbookViewId="0">
+      <selection activeCell="G302" sqref="G302"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -3107,2978 +3362,4099 @@
     <col min="1" max="1" width="27.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" ht="16.2" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>608</v>
+        <v>602</v>
       </c>
       <c r="B1" t="s">
-        <v>609</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+        <v>603</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>661</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" ht="15" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
+        <v>421</v>
+      </c>
+      <c r="B2" t="s">
+        <v>422</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" ht="15" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
+        <v>514</v>
+      </c>
+      <c r="B3" t="s">
+        <v>98</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="15" x14ac:dyDescent="0.35">
+      <c r="A4" t="s">
+        <v>522</v>
+      </c>
+      <c r="B4" t="s">
+        <v>524</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>524</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="15" x14ac:dyDescent="0.35">
+      <c r="A5" t="s">
+        <v>535</v>
+      </c>
+      <c r="B5" t="s">
+        <v>100</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="15" x14ac:dyDescent="0.35">
+      <c r="A6" t="s">
+        <v>527</v>
+      </c>
+      <c r="B6" t="s">
+        <v>528</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" ht="15" x14ac:dyDescent="0.35">
+      <c r="A7" t="s">
+        <v>261</v>
+      </c>
+      <c r="B7" t="s">
+        <v>262</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" ht="15" x14ac:dyDescent="0.35">
+      <c r="A8" t="s">
+        <v>147</v>
+      </c>
+      <c r="B8" t="s">
+        <v>10</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" ht="15" x14ac:dyDescent="0.35">
+      <c r="A9" t="s">
+        <v>289</v>
+      </c>
+      <c r="B9" t="s">
+        <v>291</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" ht="15" x14ac:dyDescent="0.35">
+      <c r="A10" t="s">
+        <v>546</v>
+      </c>
+      <c r="B10" t="s">
+        <v>547</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>547</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" ht="15" x14ac:dyDescent="0.35">
+      <c r="A11" t="s">
+        <v>444</v>
+      </c>
+      <c r="B11" t="s">
+        <v>447</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>662</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" ht="15" x14ac:dyDescent="0.35">
+      <c r="A12" t="s">
+        <v>152</v>
+      </c>
+      <c r="B12" t="s">
+        <v>15</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" ht="15" x14ac:dyDescent="0.35">
+      <c r="A13" t="s">
+        <v>264</v>
+      </c>
+      <c r="B13" t="s">
+        <v>265</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" ht="15" x14ac:dyDescent="0.35">
+      <c r="A14" t="s">
+        <v>218</v>
+      </c>
+      <c r="B14" t="s">
+        <v>82</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" ht="15" x14ac:dyDescent="0.35">
+      <c r="A15" t="s">
+        <v>409</v>
+      </c>
+      <c r="B15" t="s">
+        <v>410</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" ht="15" x14ac:dyDescent="0.35">
+      <c r="A16" t="s">
+        <v>400</v>
+      </c>
+      <c r="B16" t="s">
+        <v>401</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" ht="15" x14ac:dyDescent="0.35">
+      <c r="A17" t="s">
+        <v>477</v>
+      </c>
+      <c r="B17" t="s">
+        <v>479</v>
+      </c>
+      <c r="D17" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" ht="15" x14ac:dyDescent="0.35">
+      <c r="A18" t="s">
+        <v>150</v>
+      </c>
+      <c r="B18" t="s">
+        <v>12</v>
+      </c>
+      <c r="D18" s="2" t="s">
+        <v>523</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" ht="15" x14ac:dyDescent="0.35">
+      <c r="A19" t="s">
+        <v>522</v>
+      </c>
+      <c r="B19" t="s">
+        <v>523</v>
+      </c>
+      <c r="D19" s="2" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" ht="15" x14ac:dyDescent="0.35">
+      <c r="A20" t="s">
+        <v>212</v>
+      </c>
+      <c r="B20" t="s">
+        <v>213</v>
+      </c>
+      <c r="D20" s="2" t="s">
+        <v>521</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" ht="15" x14ac:dyDescent="0.35">
+      <c r="A21" t="s">
+        <v>520</v>
+      </c>
+      <c r="B21" t="s">
+        <v>521</v>
+      </c>
+      <c r="D21" s="2" t="s">
+        <v>663</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" ht="15" x14ac:dyDescent="0.35">
+      <c r="A22" t="s">
+        <v>444</v>
+      </c>
+      <c r="B22" t="s">
+        <v>60</v>
+      </c>
+      <c r="D22" s="2" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" ht="15" x14ac:dyDescent="0.35">
+      <c r="A23" t="s">
+        <v>306</v>
+      </c>
+      <c r="B23" t="s">
+        <v>308</v>
+      </c>
+      <c r="D23" s="2" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" ht="15" x14ac:dyDescent="0.35">
+      <c r="A24" t="s">
+        <v>356</v>
+      </c>
+      <c r="B24" t="s">
+        <v>358</v>
+      </c>
+      <c r="D24" s="2" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" ht="15" x14ac:dyDescent="0.35">
+      <c r="A25" t="s">
         <v>105</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B25" t="s">
         <v>106</v>
       </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>107</v>
-      </c>
-      <c r="B3" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>109</v>
-      </c>
-      <c r="B4" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>109</v>
-      </c>
-      <c r="B5" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>112</v>
-      </c>
-      <c r="B6" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>114</v>
-      </c>
-      <c r="B7" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>114</v>
-      </c>
-      <c r="B8" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>117</v>
-      </c>
-      <c r="B9" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>117</v>
-      </c>
-      <c r="B10" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
+      <c r="D25" s="2" t="s">
+        <v>571</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" ht="15" x14ac:dyDescent="0.35">
+      <c r="A26" t="s">
+        <v>570</v>
+      </c>
+      <c r="B26" t="s">
+        <v>571</v>
+      </c>
+      <c r="D26" s="2" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" ht="15" x14ac:dyDescent="0.35">
+      <c r="A27" t="s">
+        <v>293</v>
+      </c>
+      <c r="B27" t="s">
+        <v>294</v>
+      </c>
+      <c r="D27" s="2" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" ht="15" x14ac:dyDescent="0.35">
+      <c r="A28" t="s">
+        <v>229</v>
+      </c>
+      <c r="B28" t="s">
+        <v>230</v>
+      </c>
+      <c r="D28" s="2" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" ht="15" x14ac:dyDescent="0.35">
+      <c r="A29" t="s">
+        <v>487</v>
+      </c>
+      <c r="B29" t="s">
+        <v>85</v>
+      </c>
+      <c r="D29" s="2" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" ht="15" x14ac:dyDescent="0.35">
+      <c r="A30" t="s">
+        <v>554</v>
+      </c>
+      <c r="B30" t="s">
+        <v>91</v>
+      </c>
+      <c r="D30" s="2" t="s">
+        <v>578</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" ht="15" x14ac:dyDescent="0.35">
+      <c r="A31" t="s">
+        <v>576</v>
+      </c>
+      <c r="B31" t="s">
+        <v>578</v>
+      </c>
+      <c r="D31" s="2" t="s">
+        <v>664</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" ht="15" x14ac:dyDescent="0.35">
+      <c r="A32" t="s">
+        <v>339</v>
+      </c>
+      <c r="B32" t="s">
+        <v>340</v>
+      </c>
+      <c r="D32" s="2" t="s">
+        <v>564</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" ht="15" x14ac:dyDescent="0.35">
+      <c r="A33" t="s">
+        <v>563</v>
+      </c>
+      <c r="B33" t="s">
+        <v>564</v>
+      </c>
+      <c r="D33" s="2" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" ht="15" x14ac:dyDescent="0.35">
+      <c r="A34" t="s">
+        <v>402</v>
+      </c>
+      <c r="B34" t="s">
+        <v>403</v>
+      </c>
+      <c r="D34" s="2" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" ht="15" x14ac:dyDescent="0.35">
+      <c r="A35" t="s">
+        <v>270</v>
+      </c>
+      <c r="B35" t="s">
+        <v>271</v>
+      </c>
+      <c r="D35" s="2" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" ht="15" x14ac:dyDescent="0.35">
+      <c r="A36" t="s">
+        <v>272</v>
+      </c>
+      <c r="B36" t="s">
+        <v>273</v>
+      </c>
+      <c r="D36" s="2" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" ht="15" x14ac:dyDescent="0.35">
+      <c r="A37" t="s">
+        <v>368</v>
+      </c>
+      <c r="B37" t="s">
+        <v>369</v>
+      </c>
+      <c r="D37" s="2" t="s">
+        <v>655</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" ht="15" x14ac:dyDescent="0.35">
+      <c r="A38" t="s">
+        <v>277</v>
+      </c>
+      <c r="B38" t="s">
+        <v>69</v>
+      </c>
+      <c r="D38" s="2" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" ht="15" x14ac:dyDescent="0.35">
+      <c r="A39" t="s">
+        <v>326</v>
+      </c>
+      <c r="B39" t="s">
+        <v>327</v>
+      </c>
+      <c r="D39" s="2" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" ht="15" x14ac:dyDescent="0.35">
+      <c r="A40" t="s">
+        <v>431</v>
+      </c>
+      <c r="B40" t="s">
+        <v>102</v>
+      </c>
+      <c r="D40" s="2" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" ht="15" x14ac:dyDescent="0.35">
+      <c r="A41" t="s">
+        <v>381</v>
+      </c>
+      <c r="B41" t="s">
+        <v>382</v>
+      </c>
+      <c r="D41" s="2" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" ht="15" x14ac:dyDescent="0.35">
+      <c r="A42" t="s">
+        <v>405</v>
+      </c>
+      <c r="B42" t="s">
+        <v>27</v>
+      </c>
+      <c r="D42" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" ht="15" x14ac:dyDescent="0.35">
+      <c r="A43" t="s">
+        <v>155</v>
+      </c>
+      <c r="B43" t="s">
+        <v>157</v>
+      </c>
+      <c r="D43" s="2" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" ht="15" x14ac:dyDescent="0.35">
+      <c r="A44" t="s">
+        <v>181</v>
+      </c>
+      <c r="B44" t="s">
+        <v>182</v>
+      </c>
+      <c r="D44" s="2" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" ht="15" x14ac:dyDescent="0.35">
+      <c r="A45" t="s">
+        <v>147</v>
+      </c>
+      <c r="B45" t="s">
+        <v>9</v>
+      </c>
+      <c r="D45" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" ht="15" x14ac:dyDescent="0.35">
+      <c r="A46" t="s">
+        <v>397</v>
+      </c>
+      <c r="B46" t="s">
+        <v>398</v>
+      </c>
+      <c r="D46" s="2" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" ht="15" x14ac:dyDescent="0.35">
+      <c r="A47" t="s">
+        <v>248</v>
+      </c>
+      <c r="B47" t="s">
+        <v>251</v>
+      </c>
+      <c r="D47" s="2" t="s">
+        <v>656</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" ht="15" x14ac:dyDescent="0.35">
+      <c r="A48" t="s">
+        <v>364</v>
+      </c>
+      <c r="B48" t="s">
+        <v>42</v>
+      </c>
+      <c r="D48" s="2" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" ht="15" x14ac:dyDescent="0.35">
+      <c r="A49" t="s">
+        <v>221</v>
+      </c>
+      <c r="B49" t="s">
+        <v>222</v>
+      </c>
+      <c r="D49" s="2" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" ht="15" x14ac:dyDescent="0.35">
+      <c r="A50" t="s">
+        <v>588</v>
+      </c>
+      <c r="B50" t="s">
+        <v>591</v>
+      </c>
+      <c r="D50" s="2" t="s">
+        <v>665</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" ht="15" x14ac:dyDescent="0.35">
+      <c r="A51" t="s">
+        <v>487</v>
+      </c>
+      <c r="B51" t="s">
+        <v>488</v>
+      </c>
+      <c r="D51" s="2" t="s">
+        <v>591</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" ht="15" x14ac:dyDescent="0.35">
+      <c r="A52" t="s">
+        <v>236</v>
+      </c>
+      <c r="B52" t="s">
+        <v>237</v>
+      </c>
+      <c r="D52" s="2" t="s">
+        <v>488</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" ht="15" x14ac:dyDescent="0.35">
+      <c r="A53" t="s">
+        <v>344</v>
+      </c>
+      <c r="B53" t="s">
+        <v>346</v>
+      </c>
+      <c r="D53" s="2" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" ht="15" x14ac:dyDescent="0.35">
+      <c r="A54" t="s">
+        <v>135</v>
+      </c>
+      <c r="B54" t="s">
+        <v>137</v>
+      </c>
+      <c r="D54" s="2" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" ht="15" x14ac:dyDescent="0.35">
+      <c r="A55" t="s">
+        <v>500</v>
+      </c>
+      <c r="B55" t="s">
+        <v>501</v>
+      </c>
+      <c r="D55" s="2" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" ht="15" x14ac:dyDescent="0.35">
+      <c r="A56" t="s">
+        <v>413</v>
+      </c>
+      <c r="B56" t="s">
+        <v>416</v>
+      </c>
+      <c r="D56" s="2" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" ht="15" x14ac:dyDescent="0.35">
+      <c r="A57" t="s">
+        <v>192</v>
+      </c>
+      <c r="B57" t="s">
+        <v>193</v>
+      </c>
+      <c r="D57" s="2" t="s">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" ht="15" x14ac:dyDescent="0.35">
+      <c r="A58" t="s">
+        <v>296</v>
+      </c>
+      <c r="B58" t="s">
+        <v>73</v>
+      </c>
+      <c r="D58" s="2" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4" ht="15" x14ac:dyDescent="0.35">
+      <c r="A59" t="s">
+        <v>423</v>
+      </c>
+      <c r="B59" t="s">
+        <v>425</v>
+      </c>
+      <c r="D59" s="2" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4" ht="15" x14ac:dyDescent="0.35">
+      <c r="A60" t="s">
+        <v>452</v>
+      </c>
+      <c r="B60" t="s">
+        <v>453</v>
+      </c>
+      <c r="D60" s="2" t="s">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4" ht="15" x14ac:dyDescent="0.35">
+      <c r="A61" t="s">
+        <v>469</v>
+      </c>
+      <c r="B61" t="s">
+        <v>19</v>
+      </c>
+      <c r="D61" s="2" t="s">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4" ht="15" x14ac:dyDescent="0.35">
+      <c r="A62" t="s">
+        <v>377</v>
+      </c>
+      <c r="B62" t="s">
+        <v>378</v>
+      </c>
+      <c r="D62" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4" ht="15" x14ac:dyDescent="0.35">
+      <c r="A63" t="s">
+        <v>420</v>
+      </c>
+      <c r="B63" t="s">
+        <v>24</v>
+      </c>
+      <c r="D63" s="2" t="s">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4" ht="15" x14ac:dyDescent="0.35">
+      <c r="A64" t="s">
+        <v>397</v>
+      </c>
+      <c r="B64" t="s">
+        <v>399</v>
+      </c>
+      <c r="D64" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4" ht="15" x14ac:dyDescent="0.35">
+      <c r="A65" t="s">
+        <v>342</v>
+      </c>
+      <c r="B65" t="s">
+        <v>343</v>
+      </c>
+      <c r="D65" s="2" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4" ht="15" x14ac:dyDescent="0.35">
+      <c r="A66" t="s">
+        <v>133</v>
+      </c>
+      <c r="B66" t="s">
+        <v>134</v>
+      </c>
+      <c r="D66" s="2" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4" ht="15" x14ac:dyDescent="0.35">
+      <c r="A67" t="s">
+        <v>133</v>
+      </c>
+      <c r="B67" t="s">
+        <v>52</v>
+      </c>
+      <c r="D67" s="2" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4" ht="15" x14ac:dyDescent="0.35">
+      <c r="A68" t="s">
         <v>120</v>
       </c>
-      <c r="B11" t="s">
+      <c r="B68" t="s">
         <v>121</v>
       </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>122</v>
-      </c>
-      <c r="B12" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>122</v>
-      </c>
-      <c r="B13" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>122</v>
-      </c>
-      <c r="B14" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>125</v>
-      </c>
-      <c r="B15" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
-        <v>127</v>
-      </c>
-      <c r="B16" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
-        <v>128</v>
-      </c>
-      <c r="B17" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
-        <v>130</v>
-      </c>
-      <c r="B18" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
-        <v>130</v>
-      </c>
-      <c r="B19" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
-        <v>130</v>
-      </c>
-      <c r="B20" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
-        <v>133</v>
-      </c>
-      <c r="B21" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
-        <v>133</v>
-      </c>
-      <c r="B22" t="s">
+      <c r="D68" s="2" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A23" t="s">
-        <v>135</v>
-      </c>
-      <c r="B23" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A24" t="s">
-        <v>135</v>
-      </c>
-      <c r="B24" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A25" t="s">
-        <v>138</v>
-      </c>
-      <c r="B25" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A26" t="s">
-        <v>140</v>
-      </c>
-      <c r="B26" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A27" t="s">
-        <v>141</v>
-      </c>
-      <c r="B27" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A28" t="s">
-        <v>184</v>
-      </c>
-      <c r="B28" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A29" t="s">
-        <v>184</v>
-      </c>
-      <c r="B29" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A30" t="s">
-        <v>187</v>
-      </c>
-      <c r="B30" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A31" t="s">
-        <v>187</v>
-      </c>
-      <c r="B31" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A32" t="s">
-        <v>187</v>
-      </c>
-      <c r="B32" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A33" t="s">
-        <v>190</v>
-      </c>
-      <c r="B33" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A34" t="s">
-        <v>192</v>
-      </c>
-      <c r="B34" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A35" t="s">
-        <v>192</v>
-      </c>
-      <c r="B35" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A36" t="s">
-        <v>192</v>
-      </c>
-      <c r="B36" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A37" t="s">
-        <v>192</v>
-      </c>
-      <c r="B37" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A38" t="s">
-        <v>196</v>
-      </c>
-      <c r="B38" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A39" t="s">
-        <v>196</v>
-      </c>
-      <c r="B39" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A40" t="s">
-        <v>196</v>
-      </c>
-      <c r="B40" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A41" t="s">
-        <v>200</v>
-      </c>
-      <c r="B41" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A42" t="s">
-        <v>202</v>
-      </c>
-      <c r="B42" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A43" t="s">
-        <v>203</v>
-      </c>
-      <c r="B43" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A44" t="s">
-        <v>205</v>
-      </c>
-      <c r="B44" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A45" t="s">
-        <v>205</v>
-      </c>
-      <c r="B45" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A46" t="s">
-        <v>208</v>
-      </c>
-      <c r="B46" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A47" t="s">
-        <v>209</v>
-      </c>
-      <c r="B47" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A48" t="s">
-        <v>210</v>
-      </c>
-      <c r="B48" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A49" t="s">
-        <v>212</v>
-      </c>
-      <c r="B49" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A50" t="s">
-        <v>214</v>
-      </c>
-      <c r="B50" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A51" t="s">
-        <v>216</v>
-      </c>
-      <c r="B51" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A52" t="s">
-        <v>218</v>
-      </c>
-      <c r="B52" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A53" t="s">
-        <v>83</v>
-      </c>
-      <c r="B53" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A54" t="s">
-        <v>83</v>
-      </c>
-      <c r="B54" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A55" t="s">
-        <v>221</v>
-      </c>
-      <c r="B55" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A56" t="s">
-        <v>223</v>
-      </c>
-      <c r="B56" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A57" t="s">
-        <v>225</v>
-      </c>
-      <c r="B57" t="s">
-        <v>226</v>
-      </c>
-    </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A58" t="s">
-        <v>227</v>
-      </c>
-      <c r="B58" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A59" t="s">
-        <v>229</v>
-      </c>
-      <c r="B59" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A60" t="s">
-        <v>229</v>
-      </c>
-      <c r="B60" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A61" t="s">
-        <v>232</v>
-      </c>
-      <c r="B61" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A62" t="s">
-        <v>232</v>
-      </c>
-      <c r="B62" t="s">
-        <v>234</v>
-      </c>
-    </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A63" t="s">
-        <v>235</v>
-      </c>
-      <c r="B63" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="64" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A64" t="s">
+    <row r="69" spans="1:4" ht="15" x14ac:dyDescent="0.35">
+      <c r="A69" t="s">
         <v>236</v>
       </c>
-      <c r="B64" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="65" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A65" t="s">
-        <v>236</v>
-      </c>
-      <c r="B65" t="s">
+      <c r="B69" t="s">
         <v>90</v>
       </c>
-    </row>
-    <row r="66" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A66" t="s">
-        <v>142</v>
-      </c>
-      <c r="B66" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="67" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A67" t="s">
-        <v>142</v>
-      </c>
-      <c r="B67" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="68" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A68" t="s">
-        <v>142</v>
-      </c>
-      <c r="B68" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="69" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A69" t="s">
-        <v>143</v>
-      </c>
-      <c r="B69" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="70" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="D69" s="2" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4" ht="15" x14ac:dyDescent="0.35">
       <c r="A70" t="s">
-        <v>143</v>
+        <v>253</v>
       </c>
       <c r="B70" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="71" spans="1:2" x14ac:dyDescent="0.25">
+        <v>256</v>
+      </c>
+      <c r="D70" s="2" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4" ht="15" x14ac:dyDescent="0.35">
       <c r="A71" t="s">
-        <v>143</v>
+        <v>520</v>
       </c>
       <c r="B71" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="72" spans="1:2" x14ac:dyDescent="0.25">
+        <v>97</v>
+      </c>
+      <c r="D71" s="2" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4" ht="15" x14ac:dyDescent="0.35">
       <c r="A72" t="s">
-        <v>145</v>
+        <v>253</v>
       </c>
       <c r="B72" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="73" spans="1:2" x14ac:dyDescent="0.25">
+        <v>255</v>
+      </c>
+      <c r="D72" s="2" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4" ht="15" x14ac:dyDescent="0.35">
       <c r="A73" t="s">
-        <v>146</v>
+        <v>402</v>
       </c>
       <c r="B73" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="74" spans="1:2" x14ac:dyDescent="0.25">
+        <v>404</v>
+      </c>
+      <c r="D73" s="2" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4" ht="15" x14ac:dyDescent="0.35">
       <c r="A74" t="s">
-        <v>146</v>
+        <v>377</v>
       </c>
       <c r="B74" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="75" spans="1:2" x14ac:dyDescent="0.25">
+        <v>379</v>
+      </c>
+      <c r="D74" s="2" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4" ht="15" x14ac:dyDescent="0.35">
       <c r="A75" t="s">
         <v>147</v>
       </c>
       <c r="B75" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="76" spans="1:2" x14ac:dyDescent="0.25">
+        <v>11</v>
+      </c>
+      <c r="D75" s="2" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4" ht="15" x14ac:dyDescent="0.35">
       <c r="A76" t="s">
-        <v>147</v>
+        <v>444</v>
       </c>
       <c r="B76" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="77" spans="1:2" x14ac:dyDescent="0.25">
+        <v>448</v>
+      </c>
+      <c r="D76" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4" ht="15" x14ac:dyDescent="0.35">
       <c r="A77" t="s">
-        <v>147</v>
+        <v>464</v>
       </c>
       <c r="B77" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="78" spans="1:2" x14ac:dyDescent="0.25">
+        <v>465</v>
+      </c>
+      <c r="D77" s="2" t="s">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4" ht="15" x14ac:dyDescent="0.35">
       <c r="A78" t="s">
-        <v>147</v>
+        <v>365</v>
       </c>
       <c r="B78" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="79" spans="1:2" x14ac:dyDescent="0.25">
+        <v>366</v>
+      </c>
+      <c r="D78" s="2" t="s">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4" ht="15" x14ac:dyDescent="0.35">
       <c r="A79" t="s">
-        <v>148</v>
+        <v>196</v>
       </c>
       <c r="B79" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="80" spans="1:2" x14ac:dyDescent="0.25">
+        <v>197</v>
+      </c>
+      <c r="D79" s="2" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4" ht="15" x14ac:dyDescent="0.35">
       <c r="A80" t="s">
+        <v>431</v>
+      </c>
+      <c r="B80" t="s">
+        <v>95</v>
+      </c>
+      <c r="D80" s="2" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4" ht="15" x14ac:dyDescent="0.35">
+      <c r="A81" t="s">
+        <v>555</v>
+      </c>
+      <c r="B81" t="s">
+        <v>557</v>
+      </c>
+      <c r="D81" s="2" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4" ht="15" x14ac:dyDescent="0.35">
+      <c r="A82" t="s">
+        <v>413</v>
+      </c>
+      <c r="B82" t="s">
+        <v>417</v>
+      </c>
+      <c r="D82" s="2" t="s">
+        <v>557</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4" ht="15" x14ac:dyDescent="0.35">
+      <c r="A83" t="s">
+        <v>326</v>
+      </c>
+      <c r="B83" t="s">
+        <v>31</v>
+      </c>
+      <c r="D83" s="2" t="s">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="84" spans="1:4" ht="15" x14ac:dyDescent="0.35">
+      <c r="A84" t="s">
+        <v>155</v>
+      </c>
+      <c r="B84" t="s">
+        <v>159</v>
+      </c>
+      <c r="D84" s="2" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="85" spans="1:4" ht="15" x14ac:dyDescent="0.35">
+      <c r="A85" t="s">
+        <v>383</v>
+      </c>
+      <c r="B85" t="s">
+        <v>385</v>
+      </c>
+      <c r="D85" s="2" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="86" spans="1:4" ht="15" x14ac:dyDescent="0.35">
+      <c r="A86" t="s">
+        <v>462</v>
+      </c>
+      <c r="B86" t="s">
+        <v>463</v>
+      </c>
+      <c r="D86" s="2" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="87" spans="1:4" ht="15" x14ac:dyDescent="0.35">
+      <c r="A87" t="s">
+        <v>117</v>
+      </c>
+      <c r="B87" t="s">
+        <v>119</v>
+      </c>
+      <c r="D87" s="2" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="88" spans="1:4" ht="15" x14ac:dyDescent="0.35">
+      <c r="A88" t="s">
+        <v>492</v>
+      </c>
+      <c r="B88" t="s">
+        <v>495</v>
+      </c>
+      <c r="D88" s="2" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="89" spans="1:4" ht="15" x14ac:dyDescent="0.35">
+      <c r="A89" t="s">
+        <v>295</v>
+      </c>
+      <c r="B89" t="s">
+        <v>71</v>
+      </c>
+      <c r="D89" s="2" t="s">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="90" spans="1:4" ht="15" x14ac:dyDescent="0.35">
+      <c r="A90" t="s">
+        <v>389</v>
+      </c>
+      <c r="B90" t="s">
+        <v>390</v>
+      </c>
+      <c r="D90" s="2" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="91" spans="1:4" ht="15" x14ac:dyDescent="0.35">
+      <c r="A91" t="s">
+        <v>223</v>
+      </c>
+      <c r="B91" t="s">
+        <v>224</v>
+      </c>
+      <c r="D91" s="2" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="92" spans="1:4" ht="15" x14ac:dyDescent="0.35">
+      <c r="A92" t="s">
+        <v>361</v>
+      </c>
+      <c r="B92" t="s">
+        <v>363</v>
+      </c>
+      <c r="D92" s="2" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="93" spans="1:4" ht="15" x14ac:dyDescent="0.35">
+      <c r="A93" t="s">
+        <v>395</v>
+      </c>
+      <c r="B93" t="s">
+        <v>396</v>
+      </c>
+      <c r="D93" s="2" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="94" spans="1:4" ht="15" x14ac:dyDescent="0.35">
+      <c r="A94" t="s">
+        <v>248</v>
+      </c>
+      <c r="B94" t="s">
+        <v>37</v>
+      </c>
+      <c r="D94" s="2" t="s">
+        <v>666</v>
+      </c>
+    </row>
+    <row r="95" spans="1:4" ht="15" x14ac:dyDescent="0.35">
+      <c r="A95" t="s">
+        <v>261</v>
+      </c>
+      <c r="B95" t="s">
+        <v>39</v>
+      </c>
+      <c r="D95" s="2" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="96" spans="1:4" ht="15" x14ac:dyDescent="0.35">
+      <c r="A96" t="s">
+        <v>585</v>
+      </c>
+      <c r="B96" t="s">
+        <v>586</v>
+      </c>
+      <c r="D96" s="2" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="97" spans="1:4" ht="15" x14ac:dyDescent="0.35">
+      <c r="A97" t="s">
+        <v>439</v>
+      </c>
+      <c r="B97" t="s">
+        <v>443</v>
+      </c>
+      <c r="D97" s="2" t="s">
+        <v>586</v>
+      </c>
+    </row>
+    <row r="98" spans="1:4" ht="15" x14ac:dyDescent="0.35">
+      <c r="A98" t="s">
+        <v>480</v>
+      </c>
+      <c r="B98" t="s">
+        <v>481</v>
+      </c>
+      <c r="D98" s="2" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="99" spans="1:4" ht="15" x14ac:dyDescent="0.35">
+      <c r="A99" t="s">
+        <v>289</v>
+      </c>
+      <c r="B99" t="s">
+        <v>292</v>
+      </c>
+      <c r="D99" s="2" t="s">
+        <v>481</v>
+      </c>
+    </row>
+    <row r="100" spans="1:4" ht="15" x14ac:dyDescent="0.35">
+      <c r="A100" t="s">
+        <v>216</v>
+      </c>
+      <c r="B100" t="s">
+        <v>217</v>
+      </c>
+      <c r="D100" s="2" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="101" spans="1:4" ht="15" x14ac:dyDescent="0.35">
+      <c r="A101" t="s">
+        <v>141</v>
+      </c>
+      <c r="B101" t="s">
+        <v>94</v>
+      </c>
+      <c r="D101" s="2" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="102" spans="1:4" ht="15" x14ac:dyDescent="0.35">
+      <c r="A102" t="s">
+        <v>344</v>
+      </c>
+      <c r="B102" t="s">
+        <v>34</v>
+      </c>
+      <c r="D102" s="2" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="103" spans="1:4" ht="15" x14ac:dyDescent="0.35">
+      <c r="A103" t="s">
+        <v>518</v>
+      </c>
+      <c r="B103" t="s">
+        <v>519</v>
+      </c>
+      <c r="D103" s="2" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="104" spans="1:4" ht="15" x14ac:dyDescent="0.35">
+      <c r="A104" t="s">
         <v>150</v>
       </c>
-      <c r="B80" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="81" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A81" t="s">
+      <c r="B104" t="s">
+        <v>14</v>
+      </c>
+      <c r="D104" s="2" t="s">
+        <v>667</v>
+      </c>
+    </row>
+    <row r="105" spans="1:4" ht="15" x14ac:dyDescent="0.35">
+      <c r="A105" t="s">
+        <v>475</v>
+      </c>
+      <c r="B105" t="s">
+        <v>21</v>
+      </c>
+      <c r="D105" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="106" spans="1:4" ht="15" x14ac:dyDescent="0.35">
+      <c r="A106" t="s">
+        <v>192</v>
+      </c>
+      <c r="B106" t="s">
+        <v>77</v>
+      </c>
+      <c r="D106" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="107" spans="1:4" ht="15" x14ac:dyDescent="0.35">
+      <c r="A107" t="s">
+        <v>274</v>
+      </c>
+      <c r="B107" t="s">
+        <v>276</v>
+      </c>
+      <c r="D107" s="2" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="108" spans="1:4" ht="15" x14ac:dyDescent="0.35">
+      <c r="A108" t="s">
+        <v>323</v>
+      </c>
+      <c r="B108" t="s">
+        <v>324</v>
+      </c>
+      <c r="D108" s="2" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="109" spans="1:4" ht="15" x14ac:dyDescent="0.35">
+      <c r="A109" t="s">
+        <v>473</v>
+      </c>
+      <c r="B109" t="s">
+        <v>20</v>
+      </c>
+      <c r="D109" s="2" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="110" spans="1:4" ht="15" x14ac:dyDescent="0.35">
+      <c r="A110" t="s">
+        <v>258</v>
+      </c>
+      <c r="B110" t="s">
+        <v>259</v>
+      </c>
+      <c r="D110" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="111" spans="1:4" ht="15" x14ac:dyDescent="0.35">
+      <c r="A111" t="s">
+        <v>138</v>
+      </c>
+      <c r="B111" t="s">
+        <v>139</v>
+      </c>
+      <c r="D111" s="2" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="112" spans="1:4" ht="15" x14ac:dyDescent="0.35">
+      <c r="A112" t="s">
+        <v>480</v>
+      </c>
+      <c r="B112" t="s">
+        <v>482</v>
+      </c>
+      <c r="D112" s="2" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="113" spans="1:4" ht="15" x14ac:dyDescent="0.35">
+      <c r="A113" t="s">
+        <v>505</v>
+      </c>
+      <c r="B113" t="s">
+        <v>506</v>
+      </c>
+      <c r="D113" s="2" t="s">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="114" spans="1:4" ht="15" x14ac:dyDescent="0.35">
+      <c r="A114" t="s">
+        <v>196</v>
+      </c>
+      <c r="B114" t="s">
+        <v>198</v>
+      </c>
+      <c r="D114" s="2" t="s">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="115" spans="1:4" ht="15" x14ac:dyDescent="0.35">
+      <c r="A115" t="s">
+        <v>329</v>
+      </c>
+      <c r="B115" t="s">
+        <v>331</v>
+      </c>
+      <c r="D115" s="2" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="116" spans="1:4" ht="15" x14ac:dyDescent="0.35">
+      <c r="A116" t="s">
+        <v>466</v>
+      </c>
+      <c r="B116" t="s">
+        <v>467</v>
+      </c>
+      <c r="D116" s="2" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="117" spans="1:4" ht="15" x14ac:dyDescent="0.35">
+      <c r="A117" t="s">
         <v>150</v>
       </c>
-      <c r="B81" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="82" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A82" t="s">
-        <v>150</v>
-      </c>
-      <c r="B82" t="s">
+      <c r="B117" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="83" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A83" t="s">
-        <v>150</v>
-      </c>
-      <c r="B83" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="84" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A84" t="s">
-        <v>152</v>
-      </c>
-      <c r="B84" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="85" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A85" t="s">
-        <v>152</v>
-      </c>
-      <c r="B85" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="86" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A86" t="s">
-        <v>153</v>
-      </c>
-      <c r="B86" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="87" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A87" t="s">
-        <v>155</v>
-      </c>
-      <c r="B87" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="88" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A88" t="s">
-        <v>155</v>
-      </c>
-      <c r="B88" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="89" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A89" t="s">
-        <v>155</v>
-      </c>
-      <c r="B89" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="90" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A90" t="s">
-        <v>155</v>
-      </c>
-      <c r="B90" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="91" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A91" t="s">
-        <v>155</v>
-      </c>
-      <c r="B91" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="92" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A92" t="s">
-        <v>160</v>
-      </c>
-      <c r="B92" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="93" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A93" t="s">
-        <v>162</v>
-      </c>
-      <c r="B93" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="94" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A94" t="s">
-        <v>162</v>
-      </c>
-      <c r="B94" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="95" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A95" t="s">
+      <c r="D117" s="2" t="s">
+        <v>467</v>
+      </c>
+    </row>
+    <row r="118" spans="1:4" ht="15" x14ac:dyDescent="0.35">
+      <c r="A118" t="s">
+        <v>344</v>
+      </c>
+      <c r="B118" t="s">
+        <v>348</v>
+      </c>
+      <c r="D118" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="119" spans="1:4" ht="15" x14ac:dyDescent="0.35">
+      <c r="A119" t="s">
+        <v>166</v>
+      </c>
+      <c r="B119" t="s">
+        <v>168</v>
+      </c>
+      <c r="D119" s="2" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="120" spans="1:4" ht="15" x14ac:dyDescent="0.35">
+      <c r="A120" t="s">
+        <v>529</v>
+      </c>
+      <c r="B120" t="s">
+        <v>531</v>
+      </c>
+      <c r="D120" s="2" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="121" spans="1:4" ht="15" x14ac:dyDescent="0.35">
+      <c r="A121" t="s">
+        <v>418</v>
+      </c>
+      <c r="B121" t="s">
+        <v>419</v>
+      </c>
+      <c r="D121" s="2" t="s">
+        <v>531</v>
+      </c>
+    </row>
+    <row r="122" spans="1:4" ht="15" x14ac:dyDescent="0.35">
+      <c r="A122" t="s">
+        <v>473</v>
+      </c>
+      <c r="B122" t="s">
+        <v>474</v>
+      </c>
+      <c r="D122" s="2" t="s">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="123" spans="1:4" ht="15" x14ac:dyDescent="0.35">
+      <c r="A123" t="s">
+        <v>325</v>
+      </c>
+      <c r="B123" t="s">
+        <v>76</v>
+      </c>
+      <c r="D123" s="2" t="s">
+        <v>474</v>
+      </c>
+    </row>
+    <row r="124" spans="1:4" ht="15" x14ac:dyDescent="0.35">
+      <c r="A124" t="s">
+        <v>335</v>
+      </c>
+      <c r="B124" t="s">
+        <v>337</v>
+      </c>
+      <c r="D124" s="2" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="125" spans="1:4" ht="15" x14ac:dyDescent="0.35">
+      <c r="A125" t="s">
+        <v>274</v>
+      </c>
+      <c r="B125" t="s">
+        <v>598</v>
+      </c>
+      <c r="D125" s="2" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="126" spans="1:4" ht="15" x14ac:dyDescent="0.35">
+      <c r="A126" t="s">
+        <v>487</v>
+      </c>
+      <c r="B126" t="s">
+        <v>88</v>
+      </c>
+      <c r="D126" s="2" t="s">
+        <v>657</v>
+      </c>
+    </row>
+    <row r="127" spans="1:4" ht="15" x14ac:dyDescent="0.35">
+      <c r="A127" t="s">
+        <v>574</v>
+      </c>
+      <c r="B127" t="s">
+        <v>575</v>
+      </c>
+      <c r="D127" s="2" t="s">
+        <v>598</v>
+      </c>
+    </row>
+    <row r="128" spans="1:4" ht="15" x14ac:dyDescent="0.35">
+      <c r="A128" t="s">
+        <v>130</v>
+      </c>
+      <c r="B128" t="s">
+        <v>131</v>
+      </c>
+      <c r="D128" s="2" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="129" spans="1:4" ht="15" x14ac:dyDescent="0.35">
+      <c r="A129" t="s">
+        <v>592</v>
+      </c>
+      <c r="B129" t="s">
+        <v>593</v>
+      </c>
+      <c r="D129" s="2" t="s">
+        <v>575</v>
+      </c>
+    </row>
+    <row r="130" spans="1:4" ht="15" x14ac:dyDescent="0.35">
+      <c r="A130" t="s">
+        <v>349</v>
+      </c>
+      <c r="B130" t="s">
+        <v>350</v>
+      </c>
+      <c r="D130" s="2" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="131" spans="1:4" ht="15" x14ac:dyDescent="0.35">
+      <c r="A131" t="s">
+        <v>491</v>
+      </c>
+      <c r="B131" t="s">
+        <v>86</v>
+      </c>
+      <c r="D131" s="2" t="s">
+        <v>593</v>
+      </c>
+    </row>
+    <row r="132" spans="1:4" ht="15" x14ac:dyDescent="0.35">
+      <c r="A132" t="s">
+        <v>434</v>
+      </c>
+      <c r="B132" t="s">
+        <v>435</v>
+      </c>
+      <c r="D132" s="2" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="133" spans="1:4" ht="15" x14ac:dyDescent="0.35">
+      <c r="A133" t="s">
+        <v>329</v>
+      </c>
+      <c r="B133" t="s">
+        <v>30</v>
+      </c>
+      <c r="D133" s="2" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="134" spans="1:4" ht="15" x14ac:dyDescent="0.35">
+      <c r="A134" t="s">
+        <v>471</v>
+      </c>
+      <c r="B134" t="s">
+        <v>472</v>
+      </c>
+      <c r="D134" s="2" t="s">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="135" spans="1:4" ht="15" x14ac:dyDescent="0.35">
+      <c r="A135" t="s">
+        <v>112</v>
+      </c>
+      <c r="B135" t="s">
+        <v>113</v>
+      </c>
+      <c r="D135" s="2" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="136" spans="1:4" ht="15" x14ac:dyDescent="0.35">
+      <c r="A136" t="s">
+        <v>317</v>
+      </c>
+      <c r="B136" t="s">
+        <v>318</v>
+      </c>
+      <c r="D136" s="2" t="s">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="137" spans="1:4" ht="15" x14ac:dyDescent="0.35">
+      <c r="A137" t="s">
+        <v>122</v>
+      </c>
+      <c r="B137" t="s">
+        <v>123</v>
+      </c>
+      <c r="D137" s="2" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="138" spans="1:4" ht="15" x14ac:dyDescent="0.35">
+      <c r="A138" t="s">
+        <v>142</v>
+      </c>
+      <c r="B138" t="s">
+        <v>1</v>
+      </c>
+      <c r="D138" s="2" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="139" spans="1:4" ht="15" x14ac:dyDescent="0.35">
+      <c r="A139" t="s">
+        <v>283</v>
+      </c>
+      <c r="B139" t="s">
+        <v>285</v>
+      </c>
+      <c r="D139" s="2" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="140" spans="1:4" ht="15" x14ac:dyDescent="0.35">
+      <c r="A140" t="s">
+        <v>55</v>
+      </c>
+      <c r="B140" t="s">
+        <v>380</v>
+      </c>
+      <c r="D140" s="2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="141" spans="1:4" ht="15" x14ac:dyDescent="0.35">
+      <c r="A141" t="s">
+        <v>562</v>
+      </c>
+      <c r="B141" t="s">
+        <v>92</v>
+      </c>
+      <c r="D141" s="2" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="142" spans="1:4" ht="15" x14ac:dyDescent="0.35">
+      <c r="A142" t="s">
+        <v>372</v>
+      </c>
+      <c r="B142" t="s">
+        <v>373</v>
+      </c>
+      <c r="D142" s="2" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="143" spans="1:4" ht="15" x14ac:dyDescent="0.35">
+      <c r="A143" t="s">
+        <v>83</v>
+      </c>
+      <c r="B143" t="s">
+        <v>219</v>
+      </c>
+      <c r="D143" s="2" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="144" spans="1:4" ht="15" x14ac:dyDescent="0.35">
+      <c r="A144" t="s">
+        <v>368</v>
+      </c>
+      <c r="B144" t="s">
+        <v>371</v>
+      </c>
+      <c r="D144" s="2" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="145" spans="1:4" ht="15" x14ac:dyDescent="0.35">
+      <c r="A145" t="s">
+        <v>516</v>
+      </c>
+      <c r="B145" t="s">
+        <v>517</v>
+      </c>
+      <c r="D145" s="2" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="146" spans="1:4" ht="15" x14ac:dyDescent="0.35">
+      <c r="A146" t="s">
+        <v>192</v>
+      </c>
+      <c r="B146" t="s">
+        <v>195</v>
+      </c>
+      <c r="D146" s="2" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="147" spans="1:4" ht="15" x14ac:dyDescent="0.35">
+      <c r="A147" t="s">
+        <v>406</v>
+      </c>
+      <c r="B147" t="s">
+        <v>408</v>
+      </c>
+      <c r="D147" s="2" t="s">
+        <v>517</v>
+      </c>
+    </row>
+    <row r="148" spans="1:4" ht="15" x14ac:dyDescent="0.35">
+      <c r="A148" t="s">
+        <v>555</v>
+      </c>
+      <c r="B148" t="s">
+        <v>558</v>
+      </c>
+      <c r="D148" s="2" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="149" spans="1:4" ht="15" x14ac:dyDescent="0.35">
+      <c r="A149" t="s">
+        <v>235</v>
+      </c>
+      <c r="B149" t="s">
+        <v>89</v>
+      </c>
+      <c r="D149" s="2" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="150" spans="1:4" ht="15" x14ac:dyDescent="0.35">
+      <c r="A150" t="s">
+        <v>509</v>
+      </c>
+      <c r="B150" t="s">
+        <v>510</v>
+      </c>
+      <c r="D150" s="2" t="s">
+        <v>558</v>
+      </c>
+    </row>
+    <row r="151" spans="1:4" ht="15" x14ac:dyDescent="0.35">
+      <c r="A151" t="s">
+        <v>514</v>
+      </c>
+      <c r="B151" t="s">
+        <v>515</v>
+      </c>
+      <c r="D151" s="2" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="152" spans="1:4" ht="15" x14ac:dyDescent="0.35">
+      <c r="A152" t="s">
+        <v>525</v>
+      </c>
+      <c r="B152" t="s">
+        <v>526</v>
+      </c>
+      <c r="D152" s="2" t="s">
+        <v>510</v>
+      </c>
+    </row>
+    <row r="153" spans="1:4" ht="15" x14ac:dyDescent="0.35">
+      <c r="A153" t="s">
+        <v>529</v>
+      </c>
+      <c r="B153" t="s">
+        <v>99</v>
+      </c>
+      <c r="D153" s="2" t="s">
+        <v>515</v>
+      </c>
+    </row>
+    <row r="154" spans="1:4" ht="15" x14ac:dyDescent="0.35">
+      <c r="A154" t="s">
+        <v>356</v>
+      </c>
+      <c r="B154" t="s">
+        <v>360</v>
+      </c>
+      <c r="D154" s="2" t="s">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="155" spans="1:4" ht="15" x14ac:dyDescent="0.35">
+      <c r="A155" t="s">
+        <v>434</v>
+      </c>
+      <c r="B155" t="s">
+        <v>436</v>
+      </c>
+      <c r="D155" s="2" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="156" spans="1:4" ht="15" x14ac:dyDescent="0.35">
+      <c r="A156" t="s">
+        <v>439</v>
+      </c>
+      <c r="B156" t="s">
+        <v>440</v>
+      </c>
+      <c r="D156" s="2" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="157" spans="1:4" ht="15" x14ac:dyDescent="0.35">
+      <c r="A157" t="s">
+        <v>439</v>
+      </c>
+      <c r="B157" t="s">
+        <v>441</v>
+      </c>
+      <c r="D157" s="2" t="s">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="158" spans="1:4" ht="15" x14ac:dyDescent="0.35">
+      <c r="A158" t="s">
+        <v>588</v>
+      </c>
+      <c r="B158" t="s">
+        <v>589</v>
+      </c>
+      <c r="D158" s="2" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="159" spans="1:4" ht="15" x14ac:dyDescent="0.35">
+      <c r="A159" t="s">
+        <v>502</v>
+      </c>
+      <c r="B159" t="s">
+        <v>503</v>
+      </c>
+      <c r="D159" s="2" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="160" spans="1:4" ht="15" x14ac:dyDescent="0.35">
+      <c r="A160" t="s">
+        <v>280</v>
+      </c>
+      <c r="B160" t="s">
+        <v>282</v>
+      </c>
+      <c r="D160" s="2" t="s">
+        <v>589</v>
+      </c>
+    </row>
+    <row r="161" spans="1:4" ht="15" x14ac:dyDescent="0.35">
+      <c r="A161" t="s">
+        <v>184</v>
+      </c>
+      <c r="B161" t="s">
+        <v>185</v>
+      </c>
+      <c r="D161" s="2" t="s">
+        <v>503</v>
+      </c>
+    </row>
+    <row r="162" spans="1:4" ht="15" x14ac:dyDescent="0.35">
+      <c r="A162" t="s">
+        <v>457</v>
+      </c>
+      <c r="B162" t="s">
+        <v>459</v>
+      </c>
+      <c r="D162" s="2" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="163" spans="1:4" ht="15" x14ac:dyDescent="0.35">
+      <c r="A163" t="s">
+        <v>387</v>
+      </c>
+      <c r="B163" t="s">
+        <v>388</v>
+      </c>
+      <c r="D163" s="2" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="164" spans="1:4" ht="15" x14ac:dyDescent="0.35">
+      <c r="A164" t="s">
+        <v>579</v>
+      </c>
+      <c r="B164" t="s">
+        <v>581</v>
+      </c>
+      <c r="D164" s="2" t="s">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="165" spans="1:4" ht="15" x14ac:dyDescent="0.35">
+      <c r="A165" t="s">
+        <v>187</v>
+      </c>
+      <c r="B165" t="s">
+        <v>189</v>
+      </c>
+      <c r="D165" s="2" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="166" spans="1:4" ht="15" x14ac:dyDescent="0.35">
+      <c r="A166" t="s">
+        <v>306</v>
+      </c>
+      <c r="B166" t="s">
+        <v>307</v>
+      </c>
+      <c r="D166" s="2" t="s">
+        <v>581</v>
+      </c>
+    </row>
+    <row r="167" spans="1:4" ht="15" x14ac:dyDescent="0.35">
+      <c r="A167" t="s">
+        <v>319</v>
+      </c>
+      <c r="B167" t="s">
+        <v>320</v>
+      </c>
+      <c r="D167" s="2" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="168" spans="1:4" ht="15" x14ac:dyDescent="0.35">
+      <c r="A168" t="s">
+        <v>302</v>
+      </c>
+      <c r="B168" t="s">
+        <v>303</v>
+      </c>
+      <c r="D168" s="2" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="169" spans="1:4" ht="15" x14ac:dyDescent="0.35">
+      <c r="A169" t="s">
+        <v>296</v>
+      </c>
+      <c r="B169" t="s">
+        <v>297</v>
+      </c>
+      <c r="D169" s="2" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="170" spans="1:4" ht="15" x14ac:dyDescent="0.35">
+      <c r="A170" t="s">
+        <v>210</v>
+      </c>
+      <c r="B170" t="s">
+        <v>211</v>
+      </c>
+      <c r="D170" s="2" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="171" spans="1:4" ht="15" x14ac:dyDescent="0.35">
+      <c r="A171" t="s">
+        <v>354</v>
+      </c>
+      <c r="B171" t="s">
+        <v>355</v>
+      </c>
+      <c r="D171" s="2" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="172" spans="1:4" ht="15" x14ac:dyDescent="0.35">
+      <c r="A172" t="s">
+        <v>205</v>
+      </c>
+      <c r="B172" t="s">
+        <v>207</v>
+      </c>
+      <c r="D172" s="2" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="173" spans="1:4" ht="15" x14ac:dyDescent="0.35">
+      <c r="A173" t="s">
+        <v>319</v>
+      </c>
+      <c r="B173" t="s">
+        <v>321</v>
+      </c>
+      <c r="D173" s="2" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="174" spans="1:4" ht="15" x14ac:dyDescent="0.35">
+      <c r="A174" t="s">
+        <v>187</v>
+      </c>
+      <c r="B174" t="s">
+        <v>188</v>
+      </c>
+      <c r="D174" s="2" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="175" spans="1:4" ht="15" x14ac:dyDescent="0.35">
+      <c r="A175" t="s">
         <v>164</v>
       </c>
-      <c r="B95" t="s">
+      <c r="B175" t="s">
         <v>165</v>
       </c>
-    </row>
-    <row r="96" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A96" t="s">
-        <v>166</v>
-      </c>
-      <c r="B96" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="97" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A97" t="s">
-        <v>166</v>
-      </c>
-      <c r="B97" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="98" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A98" t="s">
-        <v>166</v>
-      </c>
-      <c r="B98" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="99" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A99" t="s">
-        <v>170</v>
-      </c>
-      <c r="B99" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="100" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A100" t="s">
-        <v>170</v>
-      </c>
-      <c r="B100" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="101" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A101" t="s">
-        <v>173</v>
-      </c>
-      <c r="B101" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="102" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A102" t="s">
-        <v>173</v>
-      </c>
-      <c r="B102" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="103" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A103" t="s">
+      <c r="D175" s="2" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="176" spans="1:4" ht="15" x14ac:dyDescent="0.35">
+      <c r="A176" t="s">
+        <v>594</v>
+      </c>
+      <c r="B176" t="s">
+        <v>595</v>
+      </c>
+      <c r="D176" s="2" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="177" spans="1:4" ht="15" x14ac:dyDescent="0.35">
+      <c r="A177" t="s">
+        <v>338</v>
+      </c>
+      <c r="B177" t="s">
+        <v>32</v>
+      </c>
+      <c r="D177" s="2" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="178" spans="1:4" ht="15" x14ac:dyDescent="0.35">
+      <c r="A178" t="s">
+        <v>460</v>
+      </c>
+      <c r="B178" t="s">
+        <v>461</v>
+      </c>
+      <c r="D178" s="2" t="s">
+        <v>595</v>
+      </c>
+    </row>
+    <row r="179" spans="1:4" ht="15" x14ac:dyDescent="0.35">
+      <c r="A179" t="s">
+        <v>140</v>
+      </c>
+      <c r="B179" t="s">
+        <v>93</v>
+      </c>
+      <c r="D179" s="2" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="180" spans="1:4" ht="15" x14ac:dyDescent="0.35">
+      <c r="A180" t="s">
+        <v>312</v>
+      </c>
+      <c r="B180" t="s">
+        <v>313</v>
+      </c>
+      <c r="D180" s="2" t="s">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="181" spans="1:4" ht="15" x14ac:dyDescent="0.35">
+      <c r="A181" t="s">
         <v>175</v>
       </c>
-      <c r="B103" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="104" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A104" t="s">
-        <v>175</v>
-      </c>
-      <c r="B104" t="s">
+      <c r="B181" t="s">
         <v>177</v>
       </c>
-    </row>
-    <row r="105" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A105" t="s">
-        <v>178</v>
-      </c>
-      <c r="B105" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="106" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A106" t="s">
-        <v>179</v>
-      </c>
-      <c r="B106" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="107" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A107" t="s">
-        <v>181</v>
-      </c>
-      <c r="B107" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="108" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A108" t="s">
-        <v>244</v>
-      </c>
-      <c r="B108" t="s">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="109" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A109" t="s">
-        <v>244</v>
-      </c>
-      <c r="B109" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="110" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A110" t="s">
-        <v>246</v>
-      </c>
-      <c r="B110" t="s">
-        <v>247</v>
-      </c>
-    </row>
-    <row r="111" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A111" t="s">
-        <v>248</v>
-      </c>
-      <c r="B111" t="s">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="112" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A112" t="s">
-        <v>248</v>
-      </c>
-      <c r="B112" t="s">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="113" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A113" t="s">
-        <v>248</v>
-      </c>
-      <c r="B113" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="114" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A114" t="s">
-        <v>248</v>
-      </c>
-      <c r="B114" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="115" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A115" t="s">
-        <v>248</v>
-      </c>
-      <c r="B115" t="s">
-        <v>252</v>
-      </c>
-    </row>
-    <row r="116" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A116" t="s">
-        <v>253</v>
-      </c>
-      <c r="B116" t="s">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="117" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A117" t="s">
-        <v>253</v>
-      </c>
-      <c r="B117" t="s">
-        <v>255</v>
-      </c>
-    </row>
-    <row r="118" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A118" t="s">
-        <v>253</v>
-      </c>
-      <c r="B118" t="s">
-        <v>256</v>
-      </c>
-    </row>
-    <row r="119" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A119" t="s">
-        <v>257</v>
-      </c>
-      <c r="B119" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="120" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A120" t="s">
-        <v>258</v>
-      </c>
-      <c r="B120" t="s">
-        <v>259</v>
-      </c>
-    </row>
-    <row r="121" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A121" t="s">
-        <v>258</v>
-      </c>
-      <c r="B121" t="s">
-        <v>260</v>
-      </c>
-    </row>
-    <row r="122" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A122" t="s">
-        <v>261</v>
-      </c>
-      <c r="B122" t="s">
-        <v>262</v>
-      </c>
-    </row>
-    <row r="123" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A123" t="s">
-        <v>261</v>
-      </c>
-      <c r="B123" t="s">
-        <v>263</v>
-      </c>
-    </row>
-    <row r="124" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A124" t="s">
-        <v>261</v>
-      </c>
-      <c r="B124" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="125" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A125" t="s">
-        <v>264</v>
-      </c>
-      <c r="B125" t="s">
-        <v>265</v>
-      </c>
-    </row>
-    <row r="126" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A126" t="s">
-        <v>264</v>
-      </c>
-      <c r="B126" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="127" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A127" t="s">
-        <v>264</v>
-      </c>
-      <c r="B127" t="s">
-        <v>266</v>
-      </c>
-    </row>
-    <row r="128" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A128" t="s">
-        <v>267</v>
-      </c>
-      <c r="B128" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="129" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A129" t="s">
-        <v>270</v>
-      </c>
-      <c r="B129" t="s">
-        <v>271</v>
-      </c>
-    </row>
-    <row r="130" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A130" t="s">
-        <v>272</v>
-      </c>
-      <c r="B130" t="s">
-        <v>273</v>
-      </c>
-    </row>
-    <row r="131" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A131" t="s">
-        <v>274</v>
-      </c>
-      <c r="B131" t="s">
-        <v>275</v>
-      </c>
-    </row>
-    <row r="132" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A132" t="s">
-        <v>274</v>
-      </c>
-      <c r="B132" t="s">
-        <v>276</v>
-      </c>
-    </row>
-    <row r="133" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A133" t="s">
-        <v>274</v>
-      </c>
-      <c r="B133" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="134" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A134" t="s">
-        <v>274</v>
-      </c>
-      <c r="B134" t="s">
-        <v>598</v>
-      </c>
-    </row>
-    <row r="135" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A135" t="s">
-        <v>277</v>
-      </c>
-      <c r="B135" t="s">
-        <v>278</v>
-      </c>
-    </row>
-    <row r="136" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A136" t="s">
-        <v>277</v>
-      </c>
-      <c r="B136" t="s">
-        <v>279</v>
-      </c>
-    </row>
-    <row r="137" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A137" t="s">
-        <v>277</v>
-      </c>
-      <c r="B137" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="138" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A138" t="s">
-        <v>280</v>
-      </c>
-      <c r="B138" t="s">
-        <v>281</v>
-      </c>
-    </row>
-    <row r="139" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A139" t="s">
-        <v>280</v>
-      </c>
-      <c r="B139" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="140" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A140" t="s">
-        <v>280</v>
-      </c>
-      <c r="B140" t="s">
-        <v>282</v>
-      </c>
-    </row>
-    <row r="141" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A141" t="s">
-        <v>283</v>
-      </c>
-      <c r="B141" t="s">
-        <v>284</v>
-      </c>
-    </row>
-    <row r="142" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A142" t="s">
-        <v>283</v>
-      </c>
-      <c r="B142" t="s">
-        <v>285</v>
-      </c>
-    </row>
-    <row r="143" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A143" t="s">
-        <v>286</v>
-      </c>
-      <c r="B143" t="s">
-        <v>287</v>
-      </c>
-    </row>
-    <row r="144" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A144" t="s">
-        <v>286</v>
-      </c>
-      <c r="B144" t="s">
-        <v>288</v>
-      </c>
-    </row>
-    <row r="145" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A145" t="s">
-        <v>289</v>
-      </c>
-      <c r="B145" t="s">
-        <v>290</v>
-      </c>
-    </row>
-    <row r="146" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A146" t="s">
-        <v>289</v>
-      </c>
-      <c r="B146" t="s">
-        <v>291</v>
-      </c>
-    </row>
-    <row r="147" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A147" t="s">
-        <v>289</v>
-      </c>
-      <c r="B147" t="s">
-        <v>292</v>
-      </c>
-    </row>
-    <row r="148" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A148" t="s">
-        <v>293</v>
-      </c>
-      <c r="B148" t="s">
-        <v>294</v>
-      </c>
-    </row>
-    <row r="149" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A149" t="s">
-        <v>295</v>
-      </c>
-      <c r="B149" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="150" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A150" t="s">
-        <v>296</v>
-      </c>
-      <c r="B150" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="151" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A151" t="s">
-        <v>296</v>
-      </c>
-      <c r="B151" t="s">
-        <v>297</v>
-      </c>
-    </row>
-    <row r="152" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A152" t="s">
+      <c r="D181" s="2" t="s">
+        <v>668</v>
+      </c>
+    </row>
+    <row r="182" spans="1:4" ht="15" x14ac:dyDescent="0.35">
+      <c r="A182" t="s">
+        <v>426</v>
+      </c>
+      <c r="B182" t="s">
+        <v>103</v>
+      </c>
+      <c r="D182" s="2" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="183" spans="1:4" ht="15" x14ac:dyDescent="0.35">
+      <c r="A183" t="s">
+        <v>400</v>
+      </c>
+      <c r="B183" t="s">
+        <v>26</v>
+      </c>
+      <c r="D183" s="2" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="184" spans="1:4" ht="15" x14ac:dyDescent="0.35">
+      <c r="A184" t="s">
+        <v>409</v>
+      </c>
+      <c r="B184" t="s">
+        <v>28</v>
+      </c>
+      <c r="D184" s="2" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="185" spans="1:4" ht="15" x14ac:dyDescent="0.35">
+      <c r="A185" t="s">
         <v>299</v>
       </c>
-      <c r="B152" t="s">
+      <c r="B185" t="s">
         <v>300</v>
       </c>
-    </row>
-    <row r="153" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A153" t="s">
-        <v>299</v>
-      </c>
-      <c r="B153" t="s">
-        <v>301</v>
-      </c>
-    </row>
-    <row r="154" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A154" t="s">
-        <v>302</v>
-      </c>
-      <c r="B154" t="s">
-        <v>303</v>
-      </c>
-    </row>
-    <row r="155" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A155" t="s">
-        <v>304</v>
-      </c>
-      <c r="B155" t="s">
-        <v>305</v>
-      </c>
-    </row>
-    <row r="156" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A156" t="s">
-        <v>304</v>
-      </c>
-      <c r="B156" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="157" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A157" t="s">
-        <v>306</v>
-      </c>
-      <c r="B157" t="s">
-        <v>307</v>
-      </c>
-    </row>
-    <row r="158" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A158" t="s">
-        <v>306</v>
-      </c>
-      <c r="B158" t="s">
-        <v>308</v>
-      </c>
-    </row>
-    <row r="159" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A159" t="s">
-        <v>309</v>
-      </c>
-      <c r="B159" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="160" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A160" t="s">
-        <v>309</v>
-      </c>
-      <c r="B160" t="s">
-        <v>311</v>
-      </c>
-    </row>
-    <row r="161" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A161" t="s">
-        <v>312</v>
-      </c>
-      <c r="B161" t="s">
-        <v>313</v>
-      </c>
-    </row>
-    <row r="162" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A162" t="s">
-        <v>312</v>
-      </c>
-      <c r="B162" t="s">
-        <v>314</v>
-      </c>
-    </row>
-    <row r="163" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A163" t="s">
-        <v>315</v>
-      </c>
-      <c r="B163" t="s">
-        <v>316</v>
-      </c>
-    </row>
-    <row r="164" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A164" t="s">
-        <v>317</v>
-      </c>
-      <c r="B164" t="s">
-        <v>318</v>
-      </c>
-    </row>
-    <row r="165" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A165" t="s">
-        <v>319</v>
-      </c>
-      <c r="B165" t="s">
-        <v>320</v>
-      </c>
-    </row>
-    <row r="166" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A166" t="s">
-        <v>319</v>
-      </c>
-      <c r="B166" t="s">
-        <v>321</v>
-      </c>
-    </row>
-    <row r="167" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A167" t="s">
-        <v>322</v>
-      </c>
-      <c r="B167" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="168" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A168" t="s">
-        <v>323</v>
-      </c>
-      <c r="B168" t="s">
-        <v>324</v>
-      </c>
-    </row>
-    <row r="169" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A169" t="s">
-        <v>325</v>
-      </c>
-      <c r="B169" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="170" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A170" t="s">
-        <v>326</v>
-      </c>
-      <c r="B170" t="s">
-        <v>327</v>
-      </c>
-    </row>
-    <row r="171" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A171" t="s">
-        <v>326</v>
-      </c>
-      <c r="B171" t="s">
-        <v>328</v>
-      </c>
-    </row>
-    <row r="172" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A172" t="s">
-        <v>326</v>
-      </c>
-      <c r="B172" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="173" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A173" t="s">
-        <v>329</v>
-      </c>
-      <c r="B173" t="s">
-        <v>330</v>
-      </c>
-    </row>
-    <row r="174" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A174" t="s">
-        <v>329</v>
-      </c>
-      <c r="B174" t="s">
-        <v>331</v>
-      </c>
-    </row>
-    <row r="175" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A175" t="s">
-        <v>329</v>
-      </c>
-      <c r="B175" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="176" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A176" t="s">
-        <v>329</v>
-      </c>
-      <c r="B176" t="s">
-        <v>332</v>
-      </c>
-    </row>
-    <row r="177" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A177" t="s">
-        <v>333</v>
-      </c>
-      <c r="B177" t="s">
-        <v>334</v>
-      </c>
-    </row>
-    <row r="178" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A178" t="s">
-        <v>335</v>
-      </c>
-      <c r="B178" t="s">
-        <v>336</v>
-      </c>
-    </row>
-    <row r="179" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A179" t="s">
-        <v>335</v>
-      </c>
-      <c r="B179" t="s">
-        <v>337</v>
-      </c>
-    </row>
-    <row r="180" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A180" t="s">
-        <v>338</v>
-      </c>
-      <c r="B180" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="181" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A181" t="s">
-        <v>339</v>
-      </c>
-      <c r="B181" t="s">
-        <v>340</v>
-      </c>
-    </row>
-    <row r="182" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A182" t="s">
-        <v>339</v>
-      </c>
-      <c r="B182" t="s">
-        <v>341</v>
-      </c>
-    </row>
-    <row r="183" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A183" t="s">
-        <v>342</v>
-      </c>
-      <c r="B183" t="s">
-        <v>343</v>
-      </c>
-    </row>
-    <row r="184" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A184" t="s">
-        <v>344</v>
-      </c>
-      <c r="B184" t="s">
-        <v>345</v>
-      </c>
-    </row>
-    <row r="185" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A185" t="s">
-        <v>344</v>
-      </c>
-      <c r="B185" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="186" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="D185" s="2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="186" spans="1:4" ht="15" x14ac:dyDescent="0.35">
       <c r="A186" t="s">
-        <v>344</v>
+        <v>579</v>
       </c>
       <c r="B186" t="s">
-        <v>346</v>
-      </c>
-    </row>
-    <row r="187" spans="1:2" x14ac:dyDescent="0.25">
+        <v>582</v>
+      </c>
+      <c r="D186" s="2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="187" spans="1:4" ht="15" x14ac:dyDescent="0.35">
       <c r="A187" t="s">
-        <v>344</v>
+        <v>125</v>
       </c>
       <c r="B187" t="s">
-        <v>347</v>
-      </c>
-    </row>
-    <row r="188" spans="1:2" x14ac:dyDescent="0.25">
+        <v>126</v>
+      </c>
+      <c r="D187" s="2" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="188" spans="1:4" ht="15" x14ac:dyDescent="0.35">
       <c r="A188" t="s">
         <v>344</v>
       </c>
       <c r="B188" t="s">
-        <v>348</v>
-      </c>
-    </row>
-    <row r="189" spans="1:2" x14ac:dyDescent="0.25">
+        <v>347</v>
+      </c>
+      <c r="D188" s="2" t="s">
+        <v>582</v>
+      </c>
+    </row>
+    <row r="189" spans="1:4" ht="15" x14ac:dyDescent="0.35">
       <c r="A189" t="s">
+        <v>439</v>
+      </c>
+      <c r="B189" t="s">
+        <v>57</v>
+      </c>
+      <c r="D189" s="2" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="190" spans="1:4" ht="15" x14ac:dyDescent="0.35">
+      <c r="A190" t="s">
+        <v>375</v>
+      </c>
+      <c r="B190" s="4" t="s">
+        <v>672</v>
+      </c>
+      <c r="D190" s="2" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="191" spans="1:4" ht="15" x14ac:dyDescent="0.35">
+      <c r="A191" t="s">
+        <v>47</v>
+      </c>
+      <c r="B191" t="s">
+        <v>48</v>
+      </c>
+      <c r="D191" s="2" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="192" spans="1:4" ht="15" x14ac:dyDescent="0.35">
+      <c r="A192" t="s">
+        <v>498</v>
+      </c>
+      <c r="B192" t="s">
+        <v>499</v>
+      </c>
+      <c r="D192" s="2" t="s">
+        <v>658</v>
+      </c>
+    </row>
+    <row r="193" spans="1:4" ht="15" x14ac:dyDescent="0.35">
+      <c r="A193" t="s">
+        <v>383</v>
+      </c>
+      <c r="B193" t="s">
+        <v>386</v>
+      </c>
+      <c r="D193" s="2" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="194" spans="1:4" ht="15" x14ac:dyDescent="0.35">
+      <c r="A194" t="s">
+        <v>572</v>
+      </c>
+      <c r="B194" t="s">
+        <v>573</v>
+      </c>
+      <c r="D194" s="2" t="s">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="195" spans="1:4" ht="15" x14ac:dyDescent="0.35">
+      <c r="A195" t="s">
+        <v>202</v>
+      </c>
+      <c r="B195" t="s">
+        <v>79</v>
+      </c>
+      <c r="D195" s="2" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="196" spans="1:4" ht="15" x14ac:dyDescent="0.35">
+      <c r="A196" t="s">
+        <v>143</v>
+      </c>
+      <c r="B196" t="s">
+        <v>144</v>
+      </c>
+      <c r="D196" s="2" t="s">
+        <v>573</v>
+      </c>
+    </row>
+    <row r="197" spans="1:4" ht="15" x14ac:dyDescent="0.35">
+      <c r="A197" t="s">
+        <v>209</v>
+      </c>
+      <c r="B197" t="s">
+        <v>81</v>
+      </c>
+      <c r="D197" s="2" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="198" spans="1:4" ht="15" x14ac:dyDescent="0.35">
+      <c r="A198" t="s">
+        <v>286</v>
+      </c>
+      <c r="B198" t="s">
+        <v>288</v>
+      </c>
+      <c r="D198" s="2" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="199" spans="1:4" ht="15" x14ac:dyDescent="0.35">
+      <c r="A199" t="s">
+        <v>511</v>
+      </c>
+      <c r="B199" t="s">
+        <v>512</v>
+      </c>
+      <c r="D199" s="2" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="200" spans="1:4" ht="15" x14ac:dyDescent="0.35">
+      <c r="A200" t="s">
+        <v>413</v>
+      </c>
+      <c r="B200" t="s">
+        <v>414</v>
+      </c>
+      <c r="D200" s="2" t="s">
+        <v>512</v>
+      </c>
+    </row>
+    <row r="201" spans="1:4" ht="15" x14ac:dyDescent="0.35">
+      <c r="A201" t="s">
+        <v>565</v>
+      </c>
+      <c r="B201" t="s">
+        <v>566</v>
+      </c>
+      <c r="D201" s="2" t="s">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="202" spans="1:4" ht="15" x14ac:dyDescent="0.35">
+      <c r="A202" t="s">
+        <v>431</v>
+      </c>
+      <c r="B202" t="s">
+        <v>432</v>
+      </c>
+      <c r="D202" s="2" t="s">
+        <v>566</v>
+      </c>
+    </row>
+    <row r="203" spans="1:4" ht="15" x14ac:dyDescent="0.35">
+      <c r="A203" t="s">
+        <v>335</v>
+      </c>
+      <c r="B203" t="s">
+        <v>336</v>
+      </c>
+      <c r="D203" s="2" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="204" spans="1:4" ht="15" x14ac:dyDescent="0.35">
+      <c r="A204" t="s">
+        <v>555</v>
+      </c>
+      <c r="B204" t="s">
+        <v>556</v>
+      </c>
+      <c r="D204" s="2" t="s">
+        <v>556</v>
+      </c>
+    </row>
+    <row r="205" spans="1:4" ht="15" x14ac:dyDescent="0.35">
+      <c r="A205" t="s">
+        <v>170</v>
+      </c>
+      <c r="B205" t="s">
+        <v>172</v>
+      </c>
+      <c r="D205" s="2" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="206" spans="1:4" ht="15" x14ac:dyDescent="0.35">
+      <c r="A206" t="s">
+        <v>555</v>
+      </c>
+      <c r="B206" t="s">
+        <v>559</v>
+      </c>
+      <c r="D206" s="2" t="s">
+        <v>559</v>
+      </c>
+    </row>
+    <row r="207" spans="1:4" ht="15" x14ac:dyDescent="0.35">
+      <c r="A207" t="s">
+        <v>312</v>
+      </c>
+      <c r="B207" t="s">
+        <v>314</v>
+      </c>
+      <c r="D207" s="2" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="208" spans="1:4" ht="15" x14ac:dyDescent="0.35">
+      <c r="A208" t="s">
+        <v>258</v>
+      </c>
+      <c r="B208" t="s">
+        <v>260</v>
+      </c>
+      <c r="D208" s="2" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="209" spans="1:4" ht="15" x14ac:dyDescent="0.35">
+      <c r="A209" t="s">
+        <v>492</v>
+      </c>
+      <c r="B209" t="s">
+        <v>493</v>
+      </c>
+      <c r="D209" s="2" t="s">
+        <v>493</v>
+      </c>
+    </row>
+    <row r="210" spans="1:4" ht="15" x14ac:dyDescent="0.35">
+      <c r="A210" t="s">
+        <v>114</v>
+      </c>
+      <c r="B210" t="s">
+        <v>116</v>
+      </c>
+      <c r="D210" s="2" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="211" spans="1:4" ht="15" x14ac:dyDescent="0.35">
+      <c r="A211" t="s">
+        <v>267</v>
+      </c>
+      <c r="B211" t="s">
+        <v>268</v>
+      </c>
+      <c r="D211" s="2" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="212" spans="1:4" ht="15" x14ac:dyDescent="0.35">
+      <c r="A212" t="s">
+        <v>248</v>
+      </c>
+      <c r="B212" t="s">
+        <v>250</v>
+      </c>
+      <c r="D212" s="2" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="213" spans="1:4" ht="15" x14ac:dyDescent="0.35">
+      <c r="A213" t="s">
+        <v>122</v>
+      </c>
+      <c r="B213" t="s">
+        <v>124</v>
+      </c>
+      <c r="D213" s="2" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="214" spans="1:4" ht="15" x14ac:dyDescent="0.35">
+      <c r="A214" t="s">
+        <v>146</v>
+      </c>
+      <c r="B214" t="s">
+        <v>6</v>
+      </c>
+      <c r="D214" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="215" spans="1:4" ht="15" x14ac:dyDescent="0.35">
+      <c r="A215" t="s">
+        <v>184</v>
+      </c>
+      <c r="B215" t="s">
+        <v>186</v>
+      </c>
+      <c r="D215" s="2" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="216" spans="1:4" ht="15" x14ac:dyDescent="0.35">
+      <c r="A216" t="s">
+        <v>246</v>
+      </c>
+      <c r="B216" t="s">
+        <v>247</v>
+      </c>
+      <c r="D216" s="2" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="217" spans="1:4" ht="15" x14ac:dyDescent="0.35">
+      <c r="A217" t="s">
+        <v>264</v>
+      </c>
+      <c r="B217" t="s">
+        <v>266</v>
+      </c>
+      <c r="D217" s="2" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="218" spans="1:4" ht="15" x14ac:dyDescent="0.35">
+      <c r="A218" t="s">
+        <v>248</v>
+      </c>
+      <c r="B218" t="s">
+        <v>249</v>
+      </c>
+      <c r="D218" s="2" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="219" spans="1:4" ht="15" x14ac:dyDescent="0.35">
+      <c r="A219" t="s">
+        <v>117</v>
+      </c>
+      <c r="B219" t="s">
+        <v>118</v>
+      </c>
+      <c r="D219" s="2" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="220" spans="1:4" ht="15" x14ac:dyDescent="0.35">
+      <c r="A220" t="s">
+        <v>299</v>
+      </c>
+      <c r="B220" t="s">
+        <v>301</v>
+      </c>
+      <c r="D220" s="2" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="221" spans="1:4" ht="15" x14ac:dyDescent="0.35">
+      <c r="A221" t="s">
+        <v>227</v>
+      </c>
+      <c r="B221" t="s">
+        <v>228</v>
+      </c>
+      <c r="D221" s="2" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="222" spans="1:4" ht="15" x14ac:dyDescent="0.35">
+      <c r="A222" t="s">
+        <v>329</v>
+      </c>
+      <c r="B222" t="s">
+        <v>332</v>
+      </c>
+      <c r="D222" s="2" t="s">
+        <v>489</v>
+      </c>
+    </row>
+    <row r="223" spans="1:4" ht="15" x14ac:dyDescent="0.35">
+      <c r="A223" t="s">
+        <v>487</v>
+      </c>
+      <c r="B223" t="s">
+        <v>489</v>
+      </c>
+      <c r="D223" s="2" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="224" spans="1:4" ht="15" x14ac:dyDescent="0.35">
+      <c r="A224" t="s">
+        <v>352</v>
+      </c>
+      <c r="B224" t="s">
+        <v>353</v>
+      </c>
+      <c r="D224" s="2" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="225" spans="1:4" ht="15" x14ac:dyDescent="0.35">
+      <c r="A225" t="s">
+        <v>434</v>
+      </c>
+      <c r="B225" t="s">
+        <v>56</v>
+      </c>
+      <c r="D225" s="2" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="226" spans="1:4" ht="15" x14ac:dyDescent="0.35">
+      <c r="A226" t="s">
+        <v>83</v>
+      </c>
+      <c r="B226" t="s">
+        <v>220</v>
+      </c>
+      <c r="D226" s="2" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="227" spans="1:4" ht="15" x14ac:dyDescent="0.35">
+      <c r="A227" t="s">
+        <v>585</v>
+      </c>
+      <c r="B227" t="s">
+        <v>44</v>
+      </c>
+      <c r="D227" s="2" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="228" spans="1:4" ht="15" x14ac:dyDescent="0.35">
+      <c r="A228" t="s">
+        <v>148</v>
+      </c>
+      <c r="B228" t="s">
+        <v>149</v>
+      </c>
+      <c r="D228" s="2" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="229" spans="1:4" ht="15" x14ac:dyDescent="0.35">
+      <c r="A229" t="s">
+        <v>214</v>
+      </c>
+      <c r="B229" t="s">
+        <v>215</v>
+      </c>
+      <c r="D229" s="2" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="230" spans="1:4" ht="15" x14ac:dyDescent="0.35">
+      <c r="A230" t="s">
+        <v>208</v>
+      </c>
+      <c r="B230" t="s">
+        <v>80</v>
+      </c>
+      <c r="D230" s="2" t="s">
+        <v>669</v>
+      </c>
+    </row>
+    <row r="231" spans="1:4" ht="15" x14ac:dyDescent="0.35">
+      <c r="A231" t="s">
+        <v>439</v>
+      </c>
+      <c r="B231" t="s">
+        <v>442</v>
+      </c>
+      <c r="D231" s="2" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="232" spans="1:4" ht="15" x14ac:dyDescent="0.35">
+      <c r="A232" t="s">
+        <v>361</v>
+      </c>
+      <c r="B232" t="s">
+        <v>362</v>
+      </c>
+      <c r="D232" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="233" spans="1:4" ht="15" x14ac:dyDescent="0.35">
+      <c r="A233" t="s">
+        <v>143</v>
+      </c>
+      <c r="B233" t="s">
+        <v>4</v>
+      </c>
+      <c r="D233" s="2" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="234" spans="1:4" ht="15" x14ac:dyDescent="0.35">
+      <c r="A234" t="s">
+        <v>109</v>
+      </c>
+      <c r="B234" t="s">
+        <v>111</v>
+      </c>
+      <c r="D234" s="2" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="235" spans="1:4" ht="15" x14ac:dyDescent="0.35">
+      <c r="A235" t="s">
+        <v>170</v>
+      </c>
+      <c r="B235" t="s">
+        <v>171</v>
+      </c>
+      <c r="D235" s="2" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="236" spans="1:4" ht="15" x14ac:dyDescent="0.35">
+      <c r="A236" t="s">
+        <v>427</v>
+      </c>
+      <c r="B236" t="s">
+        <v>96</v>
+      </c>
+      <c r="D236" s="2" t="s">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="237" spans="1:4" ht="15" x14ac:dyDescent="0.35">
+      <c r="A237" t="s">
+        <v>444</v>
+      </c>
+      <c r="B237" t="s">
+        <v>445</v>
+      </c>
+      <c r="D237" s="2" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="238" spans="1:4" ht="15" x14ac:dyDescent="0.35">
+      <c r="A238" t="s">
+        <v>225</v>
+      </c>
+      <c r="B238" t="s">
+        <v>226</v>
+      </c>
+      <c r="D238" s="2" t="s">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="239" spans="1:4" ht="15" x14ac:dyDescent="0.35">
+      <c r="A239" t="s">
+        <v>487</v>
+      </c>
+      <c r="B239" t="s">
+        <v>490</v>
+      </c>
+      <c r="D239" s="2" t="s">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="240" spans="1:4" ht="15" x14ac:dyDescent="0.35">
+      <c r="A240" t="s">
+        <v>449</v>
+      </c>
+      <c r="B240" t="s">
+        <v>450</v>
+      </c>
+      <c r="D240" s="2" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="241" spans="1:4" ht="15" x14ac:dyDescent="0.35">
+      <c r="A241" t="s">
+        <v>229</v>
+      </c>
+      <c r="B241" t="s">
+        <v>231</v>
+      </c>
+      <c r="D241" s="2" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="242" spans="1:4" ht="15" x14ac:dyDescent="0.35">
+      <c r="A242" t="s">
+        <v>150</v>
+      </c>
+      <c r="B242" t="s">
+        <v>151</v>
+      </c>
+      <c r="D242" s="2" t="s">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="243" spans="1:4" ht="15" x14ac:dyDescent="0.35">
+      <c r="A243" t="s">
+        <v>454</v>
+      </c>
+      <c r="B243" t="s">
+        <v>455</v>
+      </c>
+      <c r="D243" s="2" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="244" spans="1:4" ht="15" x14ac:dyDescent="0.35">
+      <c r="A244" t="s">
+        <v>361</v>
+      </c>
+      <c r="B244" t="s">
+        <v>41</v>
+      </c>
+      <c r="D244" s="2" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="245" spans="1:4" ht="15" x14ac:dyDescent="0.35">
+      <c r="A245" t="s">
+        <v>162</v>
+      </c>
+      <c r="B245" t="s">
+        <v>65</v>
+      </c>
+      <c r="D245" s="2" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="246" spans="1:4" ht="15" x14ac:dyDescent="0.35">
+      <c r="A246" t="s">
+        <v>454</v>
+      </c>
+      <c r="B246" t="s">
+        <v>62</v>
+      </c>
+      <c r="D246" s="2" t="s">
+        <v>580</v>
+      </c>
+    </row>
+    <row r="247" spans="1:4" ht="15" x14ac:dyDescent="0.35">
+      <c r="A247" t="s">
+        <v>579</v>
+      </c>
+      <c r="B247" t="s">
+        <v>580</v>
+      </c>
+      <c r="D247" s="2" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="248" spans="1:4" ht="15" x14ac:dyDescent="0.35">
+      <c r="A248" t="s">
+        <v>383</v>
+      </c>
+      <c r="B248" t="s">
+        <v>384</v>
+      </c>
+      <c r="D248" s="2" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="249" spans="1:4" ht="15" x14ac:dyDescent="0.35">
+      <c r="A249" t="s">
+        <v>375</v>
+      </c>
+      <c r="B249" t="s">
+        <v>53</v>
+      </c>
+      <c r="D249" s="2" t="s">
+        <v>567</v>
+      </c>
+    </row>
+    <row r="250" spans="1:4" ht="15" x14ac:dyDescent="0.35">
+      <c r="A250" t="s">
+        <v>565</v>
+      </c>
+      <c r="B250" t="s">
+        <v>567</v>
+      </c>
+      <c r="D250" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="251" spans="1:4" ht="15" x14ac:dyDescent="0.35">
+      <c r="A251" t="s">
+        <v>152</v>
+      </c>
+      <c r="B251" t="s">
+        <v>16</v>
+      </c>
+      <c r="D251" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="252" spans="1:4" ht="15" x14ac:dyDescent="0.35">
+      <c r="A252" t="s">
+        <v>146</v>
+      </c>
+      <c r="B252" t="s">
+        <v>7</v>
+      </c>
+      <c r="D252" s="2" t="s">
+        <v>659</v>
+      </c>
+    </row>
+    <row r="253" spans="1:4" ht="15" x14ac:dyDescent="0.35">
+      <c r="A253" t="s">
+        <v>244</v>
+      </c>
+      <c r="B253" t="s">
+        <v>245</v>
+      </c>
+      <c r="D253" s="2" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="254" spans="1:4" ht="15" x14ac:dyDescent="0.35">
+      <c r="A254" t="s">
+        <v>304</v>
+      </c>
+      <c r="B254" t="s">
+        <v>74</v>
+      </c>
+      <c r="D254" s="2" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="255" spans="1:4" ht="15" x14ac:dyDescent="0.35">
+      <c r="A255" t="s">
+        <v>309</v>
+      </c>
+      <c r="B255" t="s">
+        <v>311</v>
+      </c>
+      <c r="D255" s="2" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="256" spans="1:4" ht="15" x14ac:dyDescent="0.35">
+      <c r="A256" t="s">
+        <v>130</v>
+      </c>
+      <c r="B256" t="s">
+        <v>50</v>
+      </c>
+      <c r="D256" s="2" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="257" spans="1:4" ht="15" x14ac:dyDescent="0.35">
+      <c r="A257" t="s">
+        <v>496</v>
+      </c>
+      <c r="B257" t="s">
+        <v>497</v>
+      </c>
+      <c r="D257" s="2" t="s">
+        <v>497</v>
+      </c>
+    </row>
+    <row r="258" spans="1:4" ht="15" x14ac:dyDescent="0.35">
+      <c r="A258" t="s">
+        <v>153</v>
+      </c>
+      <c r="B258" t="s">
+        <v>17</v>
+      </c>
+      <c r="D258" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="259" spans="1:4" ht="15" x14ac:dyDescent="0.35">
+      <c r="A259" t="s">
+        <v>492</v>
+      </c>
+      <c r="B259" t="s">
+        <v>494</v>
+      </c>
+      <c r="D259" s="2" t="s">
+        <v>494</v>
+      </c>
+    </row>
+    <row r="260" spans="1:4" ht="15" x14ac:dyDescent="0.35">
+      <c r="A260" t="s">
+        <v>485</v>
+      </c>
+      <c r="B260" t="s">
+        <v>486</v>
+      </c>
+      <c r="D260" s="2" t="s">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="261" spans="1:4" ht="15" x14ac:dyDescent="0.35">
+      <c r="A261" t="s">
+        <v>583</v>
+      </c>
+      <c r="B261" t="s">
+        <v>45</v>
+      </c>
+      <c r="D261" s="2" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="262" spans="1:4" ht="15" x14ac:dyDescent="0.35">
+      <c r="A262" t="s">
+        <v>122</v>
+      </c>
+      <c r="B262" t="s">
+        <v>49</v>
+      </c>
+      <c r="D262" s="2" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="263" spans="1:4" ht="15" x14ac:dyDescent="0.35">
+      <c r="A263" t="s">
+        <v>274</v>
+      </c>
+      <c r="B263" t="s">
+        <v>275</v>
+      </c>
+      <c r="D263" s="2" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="264" spans="1:4" ht="15" x14ac:dyDescent="0.35">
+      <c r="A264" t="s">
+        <v>444</v>
+      </c>
+      <c r="B264" t="s">
+        <v>446</v>
+      </c>
+      <c r="D264" s="2" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="265" spans="1:4" ht="15" x14ac:dyDescent="0.35">
+      <c r="A265" t="s">
+        <v>329</v>
+      </c>
+      <c r="B265" t="s">
+        <v>330</v>
+      </c>
+      <c r="D265" s="2" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="266" spans="1:4" ht="15" x14ac:dyDescent="0.35">
+      <c r="A266" t="s">
+        <v>333</v>
+      </c>
+      <c r="B266" t="s">
+        <v>334</v>
+      </c>
+      <c r="D266" s="2" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="267" spans="1:4" ht="15" x14ac:dyDescent="0.35">
+      <c r="A267" t="s">
+        <v>548</v>
+      </c>
+      <c r="B267" t="s">
+        <v>549</v>
+      </c>
+      <c r="D267" s="2" t="s">
+        <v>549</v>
+      </c>
+    </row>
+    <row r="268" spans="1:4" ht="15" x14ac:dyDescent="0.35">
+      <c r="A268" t="s">
+        <v>190</v>
+      </c>
+      <c r="B268" t="s">
+        <v>191</v>
+      </c>
+      <c r="D268" s="2" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="269" spans="1:4" ht="15" x14ac:dyDescent="0.35">
+      <c r="A269" t="s">
+        <v>274</v>
+      </c>
+      <c r="B269" t="s">
+        <v>72</v>
+      </c>
+      <c r="D269" s="2" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="270" spans="1:4" ht="15" x14ac:dyDescent="0.35">
+      <c r="A270" t="s">
+        <v>248</v>
+      </c>
+      <c r="B270" t="s">
+        <v>252</v>
+      </c>
+      <c r="D270" s="2" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="271" spans="1:4" ht="15" x14ac:dyDescent="0.35">
+      <c r="A271" t="s">
+        <v>532</v>
+      </c>
+      <c r="B271" t="s">
+        <v>533</v>
+      </c>
+      <c r="D271" s="2" t="s">
+        <v>533</v>
+      </c>
+    </row>
+    <row r="272" spans="1:4" ht="15" x14ac:dyDescent="0.35">
+      <c r="A272" t="s">
+        <v>192</v>
+      </c>
+      <c r="B272" t="s">
+        <v>194</v>
+      </c>
+      <c r="D272" s="2" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="273" spans="1:4" ht="15" x14ac:dyDescent="0.35">
+      <c r="A273" t="s">
+        <v>356</v>
+      </c>
+      <c r="B273" t="s">
+        <v>359</v>
+      </c>
+      <c r="D273" s="2" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="274" spans="1:4" ht="15" x14ac:dyDescent="0.35">
+      <c r="A274" t="s">
+        <v>372</v>
+      </c>
+      <c r="B274" t="s">
+        <v>374</v>
+      </c>
+      <c r="D274" s="2" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="275" spans="1:4" ht="15" x14ac:dyDescent="0.35">
+      <c r="A275" t="s">
+        <v>339</v>
+      </c>
+      <c r="B275" t="s">
+        <v>341</v>
+      </c>
+      <c r="D275" s="2" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="276" spans="1:4" ht="15" x14ac:dyDescent="0.35">
+      <c r="A276" t="s">
+        <v>552</v>
+      </c>
+      <c r="B276" t="s">
+        <v>553</v>
+      </c>
+      <c r="D276" s="2" t="s">
+        <v>553</v>
+      </c>
+    </row>
+    <row r="277" spans="1:4" ht="15" x14ac:dyDescent="0.35">
+      <c r="A277" t="s">
+        <v>437</v>
+      </c>
+      <c r="B277" t="s">
+        <v>438</v>
+      </c>
+      <c r="D277" s="2" t="s">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="278" spans="1:4" ht="15" x14ac:dyDescent="0.35">
+      <c r="A278" t="s">
+        <v>114</v>
+      </c>
+      <c r="B278" t="s">
+        <v>115</v>
+      </c>
+      <c r="D278" s="2" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="279" spans="1:4" ht="15" x14ac:dyDescent="0.35">
+      <c r="A279" t="s">
+        <v>406</v>
+      </c>
+      <c r="B279" t="s">
+        <v>407</v>
+      </c>
+      <c r="D279" s="2" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="280" spans="1:4" ht="15" x14ac:dyDescent="0.35">
+      <c r="A280" t="s">
+        <v>257</v>
+      </c>
+      <c r="B280" t="s">
+        <v>36</v>
+      </c>
+      <c r="D280" s="2" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="281" spans="1:4" ht="15" x14ac:dyDescent="0.35">
+      <c r="A281" t="s">
+        <v>253</v>
+      </c>
+      <c r="B281" t="s">
+        <v>254</v>
+      </c>
+      <c r="D281" s="2" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="282" spans="1:4" ht="15" x14ac:dyDescent="0.35">
+      <c r="A282" t="s">
+        <v>433</v>
+      </c>
+      <c r="B282" t="s">
+        <v>600</v>
+      </c>
+      <c r="D282" s="2" t="s">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="283" spans="1:4" ht="15" x14ac:dyDescent="0.35">
+      <c r="A283" t="s">
+        <v>109</v>
+      </c>
+      <c r="B283" t="s">
+        <v>110</v>
+      </c>
+      <c r="D283" s="2" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="284" spans="1:4" ht="15" x14ac:dyDescent="0.35">
+      <c r="A284" t="s">
+        <v>585</v>
+      </c>
+      <c r="B284" t="s">
+        <v>587</v>
+      </c>
+      <c r="D284" s="2" t="s">
+        <v>587</v>
+      </c>
+    </row>
+    <row r="285" spans="1:4" ht="15" x14ac:dyDescent="0.35">
+      <c r="A285" t="s">
         <v>344</v>
       </c>
-      <c r="B189" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="190" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A190" t="s">
-        <v>349</v>
-      </c>
-      <c r="B190" t="s">
-        <v>350</v>
-      </c>
-    </row>
-    <row r="191" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A191" t="s">
-        <v>349</v>
-      </c>
-      <c r="B191" t="s">
-        <v>351</v>
-      </c>
-    </row>
-    <row r="192" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A192" t="s">
+      <c r="B285" t="s">
+        <v>33</v>
+      </c>
+      <c r="D285" s="2" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="286" spans="1:4" ht="15" x14ac:dyDescent="0.35">
+      <c r="A286" t="s">
+        <v>393</v>
+      </c>
+      <c r="B286" t="s">
+        <v>394</v>
+      </c>
+      <c r="D286" s="2" t="s">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="287" spans="1:4" ht="15" x14ac:dyDescent="0.35">
+      <c r="A287" t="s">
+        <v>504</v>
+      </c>
+      <c r="B287" t="s">
+        <v>87</v>
+      </c>
+      <c r="D287" s="2" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="288" spans="1:4" ht="15" x14ac:dyDescent="0.35">
+      <c r="A288" t="s">
+        <v>166</v>
+      </c>
+      <c r="B288" t="s">
+        <v>167</v>
+      </c>
+      <c r="D288" s="2" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="289" spans="1:4" ht="15" x14ac:dyDescent="0.35">
+      <c r="A289" t="s">
+        <v>594</v>
+      </c>
+      <c r="B289" t="s">
+        <v>596</v>
+      </c>
+      <c r="D289" s="2" t="s">
+        <v>596</v>
+      </c>
+    </row>
+    <row r="290" spans="1:4" ht="15" x14ac:dyDescent="0.35">
+      <c r="A290" t="s">
+        <v>560</v>
+      </c>
+      <c r="B290" t="s">
+        <v>561</v>
+      </c>
+      <c r="D290" s="2" t="s">
+        <v>561</v>
+      </c>
+    </row>
+    <row r="291" spans="1:4" ht="15" x14ac:dyDescent="0.35">
+      <c r="A291" t="s">
+        <v>421</v>
+      </c>
+      <c r="B291" t="s">
+        <v>23</v>
+      </c>
+      <c r="D291" s="2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="292" spans="1:4" ht="15" x14ac:dyDescent="0.35">
+      <c r="A292" t="s">
+        <v>532</v>
+      </c>
+      <c r="B292" t="s">
+        <v>534</v>
+      </c>
+      <c r="D292" s="2" t="s">
+        <v>534</v>
+      </c>
+    </row>
+    <row r="293" spans="1:4" ht="15" x14ac:dyDescent="0.35">
+      <c r="A293" t="s">
+        <v>107</v>
+      </c>
+      <c r="B293" t="s">
+        <v>108</v>
+      </c>
+      <c r="D293" s="2" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="294" spans="1:4" ht="15" x14ac:dyDescent="0.35">
+      <c r="A294" t="s">
+        <v>187</v>
+      </c>
+      <c r="B294" t="s">
+        <v>78</v>
+      </c>
+      <c r="D294" s="2" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="295" spans="1:4" ht="15" x14ac:dyDescent="0.35">
+      <c r="A295" t="s">
+        <v>244</v>
+      </c>
+      <c r="B295" t="s">
+        <v>35</v>
+      </c>
+      <c r="D295" s="2" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="296" spans="1:4" ht="15" x14ac:dyDescent="0.35">
+      <c r="A296" t="s">
+        <v>264</v>
+      </c>
+      <c r="B296" t="s">
+        <v>38</v>
+      </c>
+      <c r="D296" s="2" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="297" spans="1:4" ht="15" x14ac:dyDescent="0.35">
+      <c r="A297" t="s">
+        <v>145</v>
+      </c>
+      <c r="B297" t="s">
+        <v>5</v>
+      </c>
+      <c r="D297" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="298" spans="1:4" ht="15" x14ac:dyDescent="0.35">
+      <c r="A298" t="s">
+        <v>309</v>
+      </c>
+      <c r="B298" t="s">
+        <v>310</v>
+      </c>
+      <c r="D298" s="2" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="299" spans="1:4" ht="15" x14ac:dyDescent="0.35">
+      <c r="A299" t="s">
+        <v>286</v>
+      </c>
+      <c r="B299" t="s">
+        <v>287</v>
+      </c>
+      <c r="D299" s="2" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="300" spans="1:4" ht="15" x14ac:dyDescent="0.35">
+      <c r="A300" t="s">
+        <v>130</v>
+      </c>
+      <c r="B300" t="s">
+        <v>132</v>
+      </c>
+      <c r="D300" s="2" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="301" spans="1:4" ht="15" x14ac:dyDescent="0.35">
+      <c r="A301" t="s">
+        <v>162</v>
+      </c>
+      <c r="B301" t="s">
+        <v>163</v>
+      </c>
+      <c r="D301" s="2" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="302" spans="1:4" ht="15" x14ac:dyDescent="0.35">
+      <c r="A302" t="s">
+        <v>507</v>
+      </c>
+      <c r="B302" t="s">
+        <v>508</v>
+      </c>
+      <c r="D302" s="2" t="s">
+        <v>508</v>
+      </c>
+    </row>
+    <row r="303" spans="1:4" ht="15" x14ac:dyDescent="0.35">
+      <c r="A303" t="s">
+        <v>423</v>
+      </c>
+      <c r="B303" t="s">
+        <v>424</v>
+      </c>
+      <c r="D303" s="2" t="s">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="304" spans="1:4" ht="15" x14ac:dyDescent="0.35">
+      <c r="A304" t="s">
+        <v>428</v>
+      </c>
+      <c r="B304" t="s">
+        <v>101</v>
+      </c>
+      <c r="D304" s="2" t="s">
+        <v>569</v>
+      </c>
+    </row>
+    <row r="305" spans="1:4" ht="15" x14ac:dyDescent="0.35">
+      <c r="A305" t="s">
+        <v>568</v>
+      </c>
+      <c r="B305" t="s">
+        <v>569</v>
+      </c>
+      <c r="D305" s="2" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="306" spans="1:4" ht="15" x14ac:dyDescent="0.35">
+      <c r="A306" t="s">
+        <v>304</v>
+      </c>
+      <c r="B306" t="s">
+        <v>305</v>
+      </c>
+      <c r="D306" s="2" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="307" spans="1:4" ht="15" x14ac:dyDescent="0.35">
+      <c r="A307" t="s">
+        <v>179</v>
+      </c>
+      <c r="B307" t="s">
+        <v>180</v>
+      </c>
+      <c r="D307" s="2" t="s">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="308" spans="1:4" ht="15" x14ac:dyDescent="0.35">
+      <c r="A308" t="s">
+        <v>469</v>
+      </c>
+      <c r="B308" t="s">
+        <v>470</v>
+      </c>
+      <c r="D308" s="2" t="s">
+        <v>660</v>
+      </c>
+    </row>
+    <row r="309" spans="1:4" ht="15" x14ac:dyDescent="0.35">
+      <c r="A309" t="s">
+        <v>142</v>
+      </c>
+      <c r="B309" t="s">
+        <v>0</v>
+      </c>
+      <c r="D309" s="2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="310" spans="1:4" ht="15" x14ac:dyDescent="0.35">
+      <c r="A310" t="s">
+        <v>142</v>
+      </c>
+      <c r="B310" t="s">
+        <v>2</v>
+      </c>
+      <c r="D310" s="2" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="311" spans="1:4" ht="15" x14ac:dyDescent="0.35">
+      <c r="A311" t="s">
+        <v>155</v>
+      </c>
+      <c r="B311" t="s">
+        <v>156</v>
+      </c>
+      <c r="D311" s="2" t="s">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="312" spans="1:4" ht="15" x14ac:dyDescent="0.35">
+      <c r="A312" t="s">
+        <v>391</v>
+      </c>
+      <c r="B312" t="s">
+        <v>392</v>
+      </c>
+      <c r="D312" s="2" t="s">
+        <v>671</v>
+      </c>
+    </row>
+    <row r="313" spans="1:4" ht="15" x14ac:dyDescent="0.35">
+      <c r="A313" t="s">
+        <v>452</v>
+      </c>
+      <c r="B313" t="s">
+        <v>61</v>
+      </c>
+      <c r="D313" s="2" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="314" spans="1:4" ht="15" x14ac:dyDescent="0.35">
+      <c r="A314" t="s">
         <v>352</v>
       </c>
-      <c r="B192" t="s">
-        <v>353</v>
-      </c>
-    </row>
-    <row r="193" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A193" t="s">
-        <v>352</v>
-      </c>
-      <c r="B193" t="s">
+      <c r="B314" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="194" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A194" t="s">
-        <v>354</v>
-      </c>
-      <c r="B194" t="s">
-        <v>355</v>
-      </c>
-    </row>
-    <row r="195" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A195" t="s">
-        <v>356</v>
-      </c>
-      <c r="B195" t="s">
-        <v>357</v>
-      </c>
-    </row>
-    <row r="196" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A196" t="s">
-        <v>356</v>
-      </c>
-      <c r="B196" t="s">
-        <v>358</v>
-      </c>
-    </row>
-    <row r="197" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A197" t="s">
-        <v>356</v>
-      </c>
-      <c r="B197" t="s">
-        <v>359</v>
-      </c>
-    </row>
-    <row r="198" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A198" t="s">
-        <v>356</v>
-      </c>
-      <c r="B198" t="s">
-        <v>360</v>
-      </c>
-    </row>
-    <row r="199" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A199" t="s">
-        <v>361</v>
-      </c>
-      <c r="B199" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="200" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A200" t="s">
-        <v>361</v>
-      </c>
-      <c r="B200" t="s">
-        <v>362</v>
-      </c>
-    </row>
-    <row r="201" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A201" t="s">
-        <v>361</v>
-      </c>
-      <c r="B201" t="s">
-        <v>363</v>
-      </c>
-    </row>
-    <row r="202" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A202" t="s">
-        <v>364</v>
-      </c>
-      <c r="B202" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="203" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A203" t="s">
-        <v>365</v>
-      </c>
-      <c r="B203" t="s">
-        <v>366</v>
-      </c>
-    </row>
-    <row r="204" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A204" t="s">
-        <v>365</v>
-      </c>
-      <c r="B204" t="s">
-        <v>367</v>
-      </c>
-    </row>
-    <row r="205" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A205" t="s">
+      <c r="D314" s="2" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="315" spans="1:4" ht="15" x14ac:dyDescent="0.35">
+      <c r="A315" t="s">
+        <v>155</v>
+      </c>
+      <c r="B315" t="s">
+        <v>64</v>
+      </c>
+      <c r="D315" s="2" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="316" spans="1:4" ht="15" x14ac:dyDescent="0.35">
+      <c r="A316" t="s">
+        <v>196</v>
+      </c>
+      <c r="B316" t="s">
+        <v>199</v>
+      </c>
+      <c r="D316" s="2" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="317" spans="1:4" ht="15" x14ac:dyDescent="0.35">
+      <c r="A317" t="s">
+        <v>411</v>
+      </c>
+      <c r="B317" t="s">
+        <v>29</v>
+      </c>
+      <c r="D317" s="2" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="318" spans="1:4" ht="15" x14ac:dyDescent="0.35">
+      <c r="A318" t="s">
+        <v>372</v>
+      </c>
+      <c r="B318" t="s">
+        <v>43</v>
+      </c>
+      <c r="D318" s="2" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="319" spans="1:4" ht="15" x14ac:dyDescent="0.35">
+      <c r="A319" t="s">
+        <v>200</v>
+      </c>
+      <c r="B319" t="s">
+        <v>201</v>
+      </c>
+      <c r="D319" s="2" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="320" spans="1:4" ht="15" x14ac:dyDescent="0.35">
+      <c r="A320" t="s">
+        <v>477</v>
+      </c>
+      <c r="B320" t="s">
+        <v>478</v>
+      </c>
+      <c r="D320" s="2" t="s">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="321" spans="1:4" ht="15" x14ac:dyDescent="0.35">
+      <c r="A321" t="s">
+        <v>232</v>
+      </c>
+      <c r="B321" t="s">
+        <v>234</v>
+      </c>
+      <c r="D321" s="2" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="322" spans="1:4" ht="15" x14ac:dyDescent="0.35">
+      <c r="A322" t="s">
+        <v>232</v>
+      </c>
+      <c r="B322" t="s">
+        <v>233</v>
+      </c>
+      <c r="D322" s="2" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="323" spans="1:4" ht="15" x14ac:dyDescent="0.35">
+      <c r="A323" t="s">
+        <v>550</v>
+      </c>
+      <c r="B323" t="s">
+        <v>551</v>
+      </c>
+      <c r="D323" s="2" t="s">
+        <v>551</v>
+      </c>
+    </row>
+    <row r="324" spans="1:4" ht="15" x14ac:dyDescent="0.35">
+      <c r="A324" t="s">
+        <v>413</v>
+      </c>
+      <c r="B324" t="s">
+        <v>415</v>
+      </c>
+      <c r="D324" s="2" t="s">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="325" spans="1:4" ht="15" x14ac:dyDescent="0.35">
+      <c r="A325" t="s">
+        <v>344</v>
+      </c>
+      <c r="B325" t="s">
+        <v>345</v>
+      </c>
+      <c r="D325" s="2" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="326" spans="1:4" ht="15" x14ac:dyDescent="0.35">
+      <c r="A326" t="s">
+        <v>160</v>
+      </c>
+      <c r="B326" t="s">
+        <v>161</v>
+      </c>
+      <c r="D326" s="2" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="327" spans="1:4" ht="15" x14ac:dyDescent="0.35">
+      <c r="A327" t="s">
         <v>368</v>
       </c>
-      <c r="B205" t="s">
-        <v>369</v>
-      </c>
-    </row>
-    <row r="206" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A206" t="s">
-        <v>368</v>
-      </c>
-      <c r="B206" t="s">
+      <c r="B327" t="s">
         <v>370</v>
       </c>
-    </row>
-    <row r="207" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A207" t="s">
-        <v>368</v>
-      </c>
-      <c r="B207" t="s">
-        <v>371</v>
-      </c>
-    </row>
-    <row r="208" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A208" t="s">
-        <v>372</v>
-      </c>
-      <c r="B208" t="s">
-        <v>373</v>
-      </c>
-    </row>
-    <row r="209" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A209" t="s">
-        <v>372</v>
-      </c>
-      <c r="B209" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="210" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A210" t="s">
-        <v>372</v>
-      </c>
-      <c r="B210" t="s">
-        <v>374</v>
-      </c>
-    </row>
-    <row r="211" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A211" t="s">
-        <v>375</v>
-      </c>
-      <c r="B211" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="212" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A212" t="s">
-        <v>375</v>
-      </c>
-      <c r="B212" t="s">
-        <v>376</v>
-      </c>
-    </row>
-    <row r="213" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A213" t="s">
-        <v>377</v>
-      </c>
-      <c r="B213" t="s">
-        <v>378</v>
-      </c>
-    </row>
-    <row r="214" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A214" t="s">
-        <v>377</v>
-      </c>
-      <c r="B214" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="215" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A215" t="s">
-        <v>377</v>
-      </c>
-      <c r="B215" t="s">
-        <v>379</v>
-      </c>
-    </row>
-    <row r="216" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A216" t="s">
-        <v>55</v>
-      </c>
-      <c r="B216" t="s">
-        <v>380</v>
-      </c>
-    </row>
-    <row r="217" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A217" t="s">
-        <v>381</v>
-      </c>
-      <c r="B217" t="s">
-        <v>382</v>
-      </c>
-    </row>
-    <row r="218" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A218" t="s">
-        <v>383</v>
-      </c>
-      <c r="B218" t="s">
-        <v>384</v>
-      </c>
-    </row>
-    <row r="219" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A219" t="s">
-        <v>383</v>
-      </c>
-      <c r="B219" t="s">
-        <v>385</v>
-      </c>
-    </row>
-    <row r="220" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A220" t="s">
-        <v>383</v>
-      </c>
-      <c r="B220" t="s">
-        <v>386</v>
-      </c>
-    </row>
-    <row r="221" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A221" t="s">
-        <v>387</v>
-      </c>
-      <c r="B221" t="s">
-        <v>388</v>
-      </c>
-    </row>
-    <row r="222" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A222" t="s">
-        <v>389</v>
-      </c>
-      <c r="B222" t="s">
-        <v>390</v>
-      </c>
-    </row>
-    <row r="223" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A223" t="s">
-        <v>391</v>
-      </c>
-      <c r="B223" t="s">
-        <v>392</v>
-      </c>
-    </row>
-    <row r="224" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A224" t="s">
-        <v>393</v>
-      </c>
-      <c r="B224" t="s">
-        <v>394</v>
-      </c>
-    </row>
-    <row r="225" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A225" t="s">
-        <v>393</v>
-      </c>
-      <c r="B225" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="226" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A226" t="s">
-        <v>395</v>
-      </c>
-      <c r="B226" t="s">
-        <v>396</v>
-      </c>
-    </row>
-    <row r="227" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A227" t="s">
-        <v>397</v>
-      </c>
-      <c r="B227" t="s">
-        <v>398</v>
-      </c>
-    </row>
-    <row r="228" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A228" t="s">
-        <v>397</v>
-      </c>
-      <c r="B228" t="s">
-        <v>399</v>
-      </c>
-    </row>
-    <row r="229" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A229" t="s">
-        <v>400</v>
-      </c>
-      <c r="B229" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="230" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A230" t="s">
-        <v>400</v>
-      </c>
-      <c r="B230" t="s">
-        <v>401</v>
-      </c>
-    </row>
-    <row r="231" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A231" t="s">
-        <v>402</v>
-      </c>
-      <c r="B231" t="s">
-        <v>403</v>
-      </c>
-    </row>
-    <row r="232" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A232" t="s">
-        <v>402</v>
-      </c>
-      <c r="B232" t="s">
-        <v>404</v>
-      </c>
-    </row>
-    <row r="233" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A233" t="s">
-        <v>405</v>
-      </c>
-      <c r="B233" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="234" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A234" t="s">
-        <v>406</v>
-      </c>
-      <c r="B234" t="s">
-        <v>407</v>
-      </c>
-    </row>
-    <row r="235" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A235" t="s">
-        <v>406</v>
-      </c>
-      <c r="B235" t="s">
-        <v>408</v>
-      </c>
-    </row>
-    <row r="236" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A236" t="s">
-        <v>409</v>
-      </c>
-      <c r="B236" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="237" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A237" t="s">
-        <v>409</v>
-      </c>
-      <c r="B237" t="s">
-        <v>410</v>
-      </c>
-    </row>
-    <row r="238" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A238" t="s">
-        <v>411</v>
-      </c>
-      <c r="B238" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="239" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A239" t="s">
-        <v>413</v>
-      </c>
-      <c r="B239" t="s">
-        <v>414</v>
-      </c>
-    </row>
-    <row r="240" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A240" t="s">
-        <v>413</v>
-      </c>
-      <c r="B240" t="s">
-        <v>415</v>
-      </c>
-    </row>
-    <row r="241" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A241" t="s">
-        <v>413</v>
-      </c>
-      <c r="B241" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="242" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A242" t="s">
-        <v>413</v>
-      </c>
-      <c r="B242" t="s">
-        <v>416</v>
-      </c>
-    </row>
-    <row r="243" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A243" t="s">
-        <v>413</v>
-      </c>
-      <c r="B243" t="s">
-        <v>417</v>
-      </c>
-    </row>
-    <row r="244" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A244" t="s">
-        <v>418</v>
-      </c>
-      <c r="B244" t="s">
-        <v>419</v>
-      </c>
-    </row>
-    <row r="245" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A245" t="s">
-        <v>420</v>
-      </c>
-      <c r="B245" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="246" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A246" t="s">
-        <v>421</v>
-      </c>
-      <c r="B246" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="247" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A247" t="s">
-        <v>421</v>
-      </c>
-      <c r="B247" t="s">
-        <v>422</v>
-      </c>
-    </row>
-    <row r="248" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A248" t="s">
-        <v>423</v>
-      </c>
-      <c r="B248" t="s">
-        <v>424</v>
-      </c>
-    </row>
-    <row r="249" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A249" t="s">
-        <v>423</v>
-      </c>
-      <c r="B249" t="s">
-        <v>425</v>
-      </c>
-    </row>
-    <row r="250" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A250" t="s">
-        <v>426</v>
-      </c>
-      <c r="B250" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="251" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A251" t="s">
-        <v>427</v>
-      </c>
-      <c r="B251" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="252" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A252" t="s">
-        <v>428</v>
-      </c>
-      <c r="B252" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="253" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A253" t="s">
-        <v>429</v>
-      </c>
-      <c r="B253" t="s">
-        <v>430</v>
-      </c>
-    </row>
-    <row r="254" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A254" t="s">
-        <v>431</v>
-      </c>
-      <c r="B254" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="255" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A255" t="s">
-        <v>431</v>
-      </c>
-      <c r="B255" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="256" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A256" t="s">
-        <v>431</v>
-      </c>
-      <c r="B256" t="s">
-        <v>432</v>
-      </c>
-    </row>
-    <row r="257" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A257" t="s">
-        <v>433</v>
-      </c>
-      <c r="B257" t="s">
-        <v>600</v>
-      </c>
-    </row>
-    <row r="258" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A258" t="s">
-        <v>434</v>
-      </c>
-      <c r="B258" t="s">
-        <v>435</v>
-      </c>
-    </row>
-    <row r="259" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A259" t="s">
-        <v>434</v>
-      </c>
-      <c r="B259" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="260" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A260" t="s">
-        <v>434</v>
-      </c>
-      <c r="B260" t="s">
-        <v>436</v>
-      </c>
-    </row>
-    <row r="261" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A261" t="s">
-        <v>437</v>
-      </c>
-      <c r="B261" t="s">
-        <v>438</v>
-      </c>
-    </row>
-    <row r="262" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A262" t="s">
-        <v>439</v>
-      </c>
-      <c r="B262" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="263" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A263" t="s">
-        <v>439</v>
-      </c>
-      <c r="B263" t="s">
-        <v>440</v>
-      </c>
-    </row>
-    <row r="264" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A264" t="s">
-        <v>439</v>
-      </c>
-      <c r="B264" t="s">
-        <v>441</v>
-      </c>
-    </row>
-    <row r="265" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A265" t="s">
-        <v>439</v>
-      </c>
-      <c r="B265" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="266" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A266" t="s">
-        <v>439</v>
-      </c>
-      <c r="B266" t="s">
-        <v>442</v>
-      </c>
-    </row>
-    <row r="267" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A267" t="s">
-        <v>439</v>
-      </c>
-      <c r="B267" t="s">
-        <v>443</v>
-      </c>
-    </row>
-    <row r="268" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A268" t="s">
-        <v>444</v>
-      </c>
-      <c r="B268" t="s">
-        <v>445</v>
-      </c>
-    </row>
-    <row r="269" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A269" t="s">
-        <v>444</v>
-      </c>
-      <c r="B269" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="270" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A270" t="s">
-        <v>444</v>
-      </c>
-      <c r="B270" t="s">
-        <v>446</v>
-      </c>
-    </row>
-    <row r="271" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A271" t="s">
-        <v>444</v>
-      </c>
-      <c r="B271" t="s">
-        <v>447</v>
-      </c>
-    </row>
-    <row r="272" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A272" t="s">
-        <v>444</v>
-      </c>
-      <c r="B272" t="s">
-        <v>448</v>
-      </c>
-    </row>
-    <row r="273" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A273" t="s">
-        <v>444</v>
-      </c>
-      <c r="B273" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="274" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A274" t="s">
-        <v>449</v>
-      </c>
-      <c r="B274" t="s">
-        <v>450</v>
-      </c>
-    </row>
-    <row r="275" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A275" t="s">
-        <v>449</v>
-      </c>
-      <c r="B275" t="s">
-        <v>451</v>
-      </c>
-    </row>
-    <row r="276" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A276" t="s">
-        <v>452</v>
-      </c>
-      <c r="B276" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="277" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A277" t="s">
-        <v>452</v>
-      </c>
-      <c r="B277" t="s">
-        <v>453</v>
-      </c>
-    </row>
-    <row r="278" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A278" t="s">
-        <v>454</v>
-      </c>
-      <c r="B278" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="279" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A279" t="s">
-        <v>454</v>
-      </c>
-      <c r="B279" t="s">
-        <v>455</v>
-      </c>
-    </row>
-    <row r="280" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A280" t="s">
-        <v>63</v>
-      </c>
-      <c r="B280" t="s">
-        <v>456</v>
-      </c>
-    </row>
-    <row r="281" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A281" t="s">
-        <v>457</v>
-      </c>
-      <c r="B281" t="s">
-        <v>458</v>
-      </c>
-    </row>
-    <row r="282" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A282" t="s">
-        <v>457</v>
-      </c>
-      <c r="B282" t="s">
-        <v>459</v>
-      </c>
-    </row>
-    <row r="283" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A283" t="s">
-        <v>460</v>
-      </c>
-      <c r="B283" t="s">
-        <v>461</v>
-      </c>
-    </row>
-    <row r="284" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A284" t="s">
-        <v>462</v>
-      </c>
-      <c r="B284" t="s">
-        <v>463</v>
-      </c>
-    </row>
-    <row r="285" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A285" t="s">
-        <v>464</v>
-      </c>
-      <c r="B285" t="s">
-        <v>465</v>
-      </c>
-    </row>
-    <row r="286" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A286" t="s">
-        <v>466</v>
-      </c>
-      <c r="B286" t="s">
-        <v>467</v>
-      </c>
-    </row>
-    <row r="287" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A287" t="s">
-        <v>18</v>
-      </c>
-      <c r="B287" t="s">
-        <v>468</v>
-      </c>
-    </row>
-    <row r="288" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A288" t="s">
-        <v>469</v>
-      </c>
-      <c r="B288" t="s">
-        <v>470</v>
-      </c>
-    </row>
-    <row r="289" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A289" t="s">
-        <v>469</v>
-      </c>
-      <c r="B289" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="290" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A290" t="s">
-        <v>471</v>
-      </c>
-      <c r="B290" t="s">
-        <v>472</v>
-      </c>
-    </row>
-    <row r="291" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A291" t="s">
-        <v>473</v>
-      </c>
-      <c r="B291" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="292" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A292" t="s">
-        <v>473</v>
-      </c>
-      <c r="B292" t="s">
-        <v>474</v>
-      </c>
-    </row>
-    <row r="293" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A293" t="s">
-        <v>475</v>
-      </c>
-      <c r="B293" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="294" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A294" t="s">
-        <v>475</v>
-      </c>
-      <c r="B294" t="s">
-        <v>476</v>
-      </c>
-    </row>
-    <row r="295" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A295" t="s">
-        <v>477</v>
-      </c>
-      <c r="B295" t="s">
-        <v>478</v>
-      </c>
-    </row>
-    <row r="296" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A296" t="s">
-        <v>477</v>
-      </c>
-      <c r="B296" t="s">
-        <v>479</v>
-      </c>
-    </row>
-    <row r="297" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A297" t="s">
-        <v>480</v>
-      </c>
-      <c r="B297" t="s">
-        <v>481</v>
-      </c>
-    </row>
-    <row r="298" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A298" t="s">
-        <v>480</v>
-      </c>
-      <c r="B298" t="s">
-        <v>482</v>
-      </c>
-    </row>
-    <row r="299" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A299" t="s">
-        <v>483</v>
-      </c>
-      <c r="B299" t="s">
-        <v>484</v>
-      </c>
-    </row>
-    <row r="300" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A300" t="s">
-        <v>485</v>
-      </c>
-      <c r="B300" t="s">
-        <v>486</v>
-      </c>
-    </row>
-    <row r="301" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A301" t="s">
-        <v>487</v>
-      </c>
-      <c r="B301" t="s">
-        <v>488</v>
-      </c>
-    </row>
-    <row r="302" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A302" t="s">
-        <v>487</v>
-      </c>
-      <c r="B302" t="s">
-        <v>489</v>
-      </c>
-    </row>
-    <row r="303" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A303" t="s">
-        <v>487</v>
-      </c>
-      <c r="B303" t="s">
-        <v>490</v>
-      </c>
-    </row>
-    <row r="304" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A304" t="s">
-        <v>487</v>
-      </c>
-      <c r="B304" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="305" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A305" t="s">
-        <v>487</v>
-      </c>
-      <c r="B305" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="306" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A306" t="s">
-        <v>491</v>
-      </c>
-      <c r="B306" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="307" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A307" t="s">
-        <v>492</v>
-      </c>
-      <c r="B307" t="s">
-        <v>493</v>
-      </c>
-    </row>
-    <row r="308" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A308" t="s">
-        <v>492</v>
-      </c>
-      <c r="B308" t="s">
-        <v>494</v>
-      </c>
-    </row>
-    <row r="309" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A309" t="s">
-        <v>492</v>
-      </c>
-      <c r="B309" t="s">
-        <v>495</v>
-      </c>
-    </row>
-    <row r="310" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A310" t="s">
-        <v>496</v>
-      </c>
-      <c r="B310" t="s">
-        <v>497</v>
-      </c>
-    </row>
-    <row r="311" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A311" t="s">
-        <v>498</v>
-      </c>
-      <c r="B311" t="s">
-        <v>499</v>
-      </c>
-    </row>
-    <row r="312" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A312" t="s">
-        <v>500</v>
-      </c>
-      <c r="B312" t="s">
-        <v>501</v>
-      </c>
-    </row>
-    <row r="313" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A313" t="s">
-        <v>502</v>
-      </c>
-      <c r="B313" t="s">
-        <v>503</v>
-      </c>
-    </row>
-    <row r="314" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A314" t="s">
-        <v>504</v>
-      </c>
-      <c r="B314" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="315" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A315" t="s">
-        <v>505</v>
-      </c>
-      <c r="B315" t="s">
-        <v>506</v>
-      </c>
-    </row>
-    <row r="316" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A316" t="s">
-        <v>507</v>
-      </c>
-      <c r="B316" t="s">
-        <v>508</v>
-      </c>
-    </row>
-    <row r="317" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A317" t="s">
-        <v>509</v>
-      </c>
-      <c r="B317" t="s">
-        <v>510</v>
-      </c>
-    </row>
-    <row r="318" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A318" t="s">
-        <v>511</v>
-      </c>
-      <c r="B318" t="s">
-        <v>512</v>
-      </c>
-    </row>
-    <row r="319" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A319" t="s">
-        <v>514</v>
-      </c>
-      <c r="B319" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="320" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A320" t="s">
-        <v>514</v>
-      </c>
-      <c r="B320" t="s">
-        <v>515</v>
-      </c>
-    </row>
-    <row r="321" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A321" t="s">
-        <v>516</v>
-      </c>
-      <c r="B321" t="s">
-        <v>517</v>
-      </c>
-    </row>
-    <row r="322" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A322" t="s">
-        <v>518</v>
-      </c>
-      <c r="B322" t="s">
-        <v>519</v>
-      </c>
-    </row>
-    <row r="323" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A323" t="s">
-        <v>520</v>
-      </c>
-      <c r="B323" t="s">
-        <v>521</v>
-      </c>
-    </row>
-    <row r="324" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A324" t="s">
-        <v>520</v>
-      </c>
-      <c r="B324" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="325" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A325" t="s">
-        <v>522</v>
-      </c>
-      <c r="B325" t="s">
-        <v>523</v>
-      </c>
-    </row>
-    <row r="326" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A326" t="s">
-        <v>522</v>
-      </c>
-      <c r="B326" t="s">
-        <v>524</v>
-      </c>
-    </row>
-    <row r="327" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A327" t="s">
-        <v>525</v>
-      </c>
-      <c r="B327" t="s">
-        <v>526</v>
-      </c>
-    </row>
-    <row r="328" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="D327" s="2" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="328" spans="1:4" ht="15" x14ac:dyDescent="0.35">
       <c r="A328" t="s">
-        <v>527</v>
+        <v>203</v>
       </c>
       <c r="B328" t="s">
-        <v>528</v>
-      </c>
-    </row>
-    <row r="329" spans="1:2" x14ac:dyDescent="0.25">
+        <v>204</v>
+      </c>
+      <c r="D328" s="2" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="329" spans="1:4" ht="15" x14ac:dyDescent="0.35">
       <c r="A329" t="s">
         <v>529</v>
       </c>
       <c r="B329" t="s">
         <v>530</v>
       </c>
-    </row>
-    <row r="330" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="D329" s="2" t="s">
+        <v>670</v>
+      </c>
+    </row>
+    <row r="330" spans="1:4" ht="15" x14ac:dyDescent="0.35">
       <c r="A330" t="s">
-        <v>529</v>
+        <v>365</v>
       </c>
       <c r="B330" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="331" spans="1:2" x14ac:dyDescent="0.25">
+        <v>367</v>
+      </c>
+      <c r="D330" s="2" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="331" spans="1:4" ht="15" x14ac:dyDescent="0.35">
       <c r="A331" t="s">
-        <v>529</v>
+        <v>280</v>
       </c>
       <c r="B331" t="s">
-        <v>531</v>
-      </c>
-    </row>
-    <row r="332" spans="1:2" x14ac:dyDescent="0.25">
+        <v>70</v>
+      </c>
+      <c r="D331" s="2" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="332" spans="1:4" ht="15" x14ac:dyDescent="0.35">
       <c r="A332" t="s">
-        <v>532</v>
+        <v>277</v>
       </c>
       <c r="B332" t="s">
-        <v>533</v>
-      </c>
-    </row>
-    <row r="333" spans="1:2" x14ac:dyDescent="0.25">
+        <v>279</v>
+      </c>
+      <c r="D332" s="2" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="333" spans="1:4" ht="15" x14ac:dyDescent="0.35">
       <c r="A333" t="s">
-        <v>532</v>
+        <v>349</v>
       </c>
       <c r="B333" t="s">
-        <v>534</v>
-      </c>
-    </row>
-    <row r="334" spans="1:2" x14ac:dyDescent="0.25">
+        <v>351</v>
+      </c>
+      <c r="D333" s="2" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="334" spans="1:4" ht="15" x14ac:dyDescent="0.35">
       <c r="A334" t="s">
-        <v>535</v>
+        <v>175</v>
       </c>
       <c r="B334" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="335" spans="1:2" x14ac:dyDescent="0.25">
+        <v>176</v>
+      </c>
+      <c r="D334" s="2" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="335" spans="1:4" ht="15" x14ac:dyDescent="0.35">
       <c r="A335" t="s">
-        <v>546</v>
+        <v>588</v>
       </c>
       <c r="B335" t="s">
-        <v>547</v>
-      </c>
-    </row>
-    <row r="336" spans="1:2" x14ac:dyDescent="0.25">
+        <v>590</v>
+      </c>
+      <c r="D335" s="2" t="s">
+        <v>590</v>
+      </c>
+    </row>
+    <row r="336" spans="1:4" ht="15" x14ac:dyDescent="0.35">
       <c r="A336" t="s">
-        <v>548</v>
+        <v>205</v>
       </c>
       <c r="B336" t="s">
-        <v>549</v>
-      </c>
-    </row>
-    <row r="337" spans="1:2" x14ac:dyDescent="0.25">
+        <v>206</v>
+      </c>
+      <c r="D336" s="2" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="337" spans="1:4" ht="15" x14ac:dyDescent="0.35">
       <c r="A337" t="s">
-        <v>550</v>
+        <v>155</v>
       </c>
       <c r="B337" t="s">
-        <v>551</v>
-      </c>
-    </row>
-    <row r="338" spans="1:2" x14ac:dyDescent="0.25">
+        <v>158</v>
+      </c>
+      <c r="D337" s="2" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="338" spans="1:4" ht="15" x14ac:dyDescent="0.35">
       <c r="A338" t="s">
-        <v>552</v>
+        <v>289</v>
       </c>
       <c r="B338" t="s">
-        <v>553</v>
-      </c>
-    </row>
-    <row r="339" spans="1:2" x14ac:dyDescent="0.25">
+        <v>290</v>
+      </c>
+      <c r="D338" s="2" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="339" spans="1:4" ht="15" x14ac:dyDescent="0.35">
       <c r="A339" t="s">
-        <v>554</v>
+        <v>128</v>
       </c>
       <c r="B339" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="340" spans="1:2" x14ac:dyDescent="0.25">
+        <v>129</v>
+      </c>
+      <c r="D339" s="2" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="340" spans="1:4" ht="15" x14ac:dyDescent="0.35">
       <c r="A340" t="s">
-        <v>555</v>
+        <v>178</v>
       </c>
       <c r="B340" t="s">
-        <v>556</v>
-      </c>
-    </row>
-    <row r="341" spans="1:2" x14ac:dyDescent="0.25">
+        <v>68</v>
+      </c>
+      <c r="D340" s="2" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="341" spans="1:4" ht="15" x14ac:dyDescent="0.35">
       <c r="A341" t="s">
-        <v>555</v>
+        <v>475</v>
       </c>
       <c r="B341" t="s">
-        <v>557</v>
-      </c>
-    </row>
-    <row r="342" spans="1:2" x14ac:dyDescent="0.25">
+        <v>476</v>
+      </c>
+      <c r="D341" s="2" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="342" spans="1:4" ht="15" x14ac:dyDescent="0.35">
       <c r="A342" t="s">
-        <v>555</v>
+        <v>588</v>
       </c>
       <c r="B342" t="s">
-        <v>558</v>
-      </c>
-    </row>
-    <row r="343" spans="1:2" x14ac:dyDescent="0.25">
+        <v>46</v>
+      </c>
+      <c r="D342" s="2" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="343" spans="1:4" ht="15" x14ac:dyDescent="0.35">
       <c r="A343" t="s">
-        <v>555</v>
+        <v>576</v>
       </c>
       <c r="B343" t="s">
-        <v>559</v>
-      </c>
-    </row>
-    <row r="344" spans="1:2" x14ac:dyDescent="0.25">
+        <v>577</v>
+      </c>
+      <c r="D343" s="2" t="s">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="344" spans="1:4" ht="15" x14ac:dyDescent="0.35">
       <c r="A344" t="s">
-        <v>560</v>
+        <v>326</v>
       </c>
       <c r="B344" t="s">
-        <v>561</v>
-      </c>
-    </row>
-    <row r="345" spans="1:2" x14ac:dyDescent="0.25">
+        <v>328</v>
+      </c>
+      <c r="D344" s="2" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="345" spans="1:4" ht="15" x14ac:dyDescent="0.35">
       <c r="A345" t="s">
-        <v>562</v>
+        <v>457</v>
       </c>
       <c r="B345" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="346" spans="1:2" x14ac:dyDescent="0.25">
+        <v>458</v>
+      </c>
+      <c r="D345" s="2" t="s">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="346" spans="1:4" ht="15" x14ac:dyDescent="0.35">
       <c r="A346" t="s">
-        <v>563</v>
+        <v>173</v>
       </c>
       <c r="B346" t="s">
-        <v>564</v>
-      </c>
-    </row>
-    <row r="347" spans="1:2" x14ac:dyDescent="0.25">
+        <v>174</v>
+      </c>
+      <c r="D346" s="2" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="347" spans="1:4" ht="15" x14ac:dyDescent="0.35">
       <c r="A347" t="s">
-        <v>565</v>
+        <v>594</v>
       </c>
       <c r="B347" t="s">
-        <v>566</v>
-      </c>
-    </row>
-    <row r="348" spans="1:2" x14ac:dyDescent="0.25">
+        <v>597</v>
+      </c>
+      <c r="D347" s="2" t="s">
+        <v>597</v>
+      </c>
+    </row>
+    <row r="348" spans="1:4" ht="15" x14ac:dyDescent="0.35">
       <c r="A348" t="s">
-        <v>565</v>
+        <v>135</v>
       </c>
       <c r="B348" t="s">
-        <v>567</v>
-      </c>
-    </row>
-    <row r="349" spans="1:2" x14ac:dyDescent="0.25">
+        <v>136</v>
+      </c>
+      <c r="D348" s="2" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="349" spans="1:4" ht="15" x14ac:dyDescent="0.35">
       <c r="A349" t="s">
-        <v>568</v>
+        <v>429</v>
       </c>
       <c r="B349" t="s">
-        <v>569</v>
-      </c>
-    </row>
-    <row r="350" spans="1:2" x14ac:dyDescent="0.25">
+        <v>430</v>
+      </c>
+      <c r="D349" s="2" t="s">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="350" spans="1:4" ht="15" x14ac:dyDescent="0.35">
       <c r="A350" t="s">
-        <v>570</v>
+        <v>315</v>
       </c>
       <c r="B350" t="s">
-        <v>571</v>
-      </c>
-    </row>
-    <row r="351" spans="1:2" x14ac:dyDescent="0.25">
+        <v>316</v>
+      </c>
+      <c r="D350" s="2" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="351" spans="1:4" ht="15" x14ac:dyDescent="0.35">
       <c r="A351" t="s">
-        <v>572</v>
+        <v>18</v>
       </c>
       <c r="B351" t="s">
-        <v>573</v>
-      </c>
-    </row>
-    <row r="352" spans="1:2" x14ac:dyDescent="0.25">
+        <v>468</v>
+      </c>
+      <c r="D351" s="2" t="s">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="352" spans="1:4" ht="15" x14ac:dyDescent="0.35">
       <c r="A352" t="s">
-        <v>574</v>
+        <v>280</v>
       </c>
       <c r="B352" t="s">
-        <v>575</v>
-      </c>
-    </row>
-    <row r="353" spans="1:2" x14ac:dyDescent="0.25">
+        <v>281</v>
+      </c>
+      <c r="D352" s="2" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="353" spans="1:4" ht="15" x14ac:dyDescent="0.35">
       <c r="A353" t="s">
-        <v>576</v>
+        <v>413</v>
       </c>
       <c r="B353" t="s">
-        <v>577</v>
-      </c>
-    </row>
-    <row r="354" spans="1:2" x14ac:dyDescent="0.25">
+        <v>22</v>
+      </c>
+      <c r="D353" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="354" spans="1:4" ht="15" x14ac:dyDescent="0.35">
       <c r="A354" t="s">
-        <v>576</v>
+        <v>356</v>
       </c>
       <c r="B354" t="s">
-        <v>578</v>
-      </c>
-    </row>
-    <row r="355" spans="1:2" x14ac:dyDescent="0.25">
+        <v>357</v>
+      </c>
+      <c r="D354" s="2" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="355" spans="1:4" ht="15" x14ac:dyDescent="0.35">
       <c r="A355" t="s">
-        <v>579</v>
+        <v>127</v>
       </c>
       <c r="B355" t="s">
-        <v>580</v>
-      </c>
-    </row>
-    <row r="356" spans="1:2" x14ac:dyDescent="0.25">
+        <v>51</v>
+      </c>
+      <c r="D355" s="2" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="356" spans="1:4" ht="15" x14ac:dyDescent="0.35">
       <c r="A356" t="s">
-        <v>579</v>
+        <v>377</v>
       </c>
       <c r="B356" t="s">
-        <v>581</v>
-      </c>
-    </row>
-    <row r="357" spans="1:2" x14ac:dyDescent="0.25">
+        <v>54</v>
+      </c>
+      <c r="D356" s="2" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="357" spans="1:4" ht="15" x14ac:dyDescent="0.35">
       <c r="A357" t="s">
-        <v>579</v>
+        <v>173</v>
       </c>
       <c r="B357" t="s">
-        <v>582</v>
-      </c>
-    </row>
-    <row r="358" spans="1:2" x14ac:dyDescent="0.25">
+        <v>67</v>
+      </c>
+      <c r="D357" s="2" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="358" spans="1:4" ht="15" x14ac:dyDescent="0.35">
       <c r="A358" t="s">
+        <v>166</v>
+      </c>
+      <c r="B358" t="s">
+        <v>169</v>
+      </c>
+      <c r="D358" s="2" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="359" spans="1:4" ht="15" x14ac:dyDescent="0.35">
+      <c r="A359" t="s">
+        <v>439</v>
+      </c>
+      <c r="B359" t="s">
+        <v>58</v>
+      </c>
+      <c r="D359" s="2" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="360" spans="1:4" ht="15" x14ac:dyDescent="0.35">
+      <c r="A360" t="s">
+        <v>261</v>
+      </c>
+      <c r="B360" t="s">
+        <v>263</v>
+      </c>
+      <c r="D360" s="2" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="361" spans="1:4" ht="15" x14ac:dyDescent="0.35">
+      <c r="A361" t="s">
+        <v>277</v>
+      </c>
+      <c r="B361" t="s">
+        <v>278</v>
+      </c>
+      <c r="D361" s="2" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="362" spans="1:4" ht="15" x14ac:dyDescent="0.35">
+      <c r="A362" t="s">
+        <v>283</v>
+      </c>
+      <c r="B362" t="s">
+        <v>284</v>
+      </c>
+      <c r="D362" s="2" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="363" spans="1:4" ht="15" x14ac:dyDescent="0.35">
+      <c r="A363" t="s">
+        <v>444</v>
+      </c>
+      <c r="B363" t="s">
+        <v>59</v>
+      </c>
+      <c r="D363" s="2" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="364" spans="1:4" ht="15" x14ac:dyDescent="0.35">
+      <c r="A364" t="s">
         <v>583</v>
       </c>
-      <c r="B358" t="s">
+      <c r="B364" t="s">
         <v>584</v>
       </c>
-    </row>
-    <row r="359" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A359" t="s">
-        <v>583</v>
-      </c>
-      <c r="B359" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="360" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A360" t="s">
-        <v>585</v>
-      </c>
-      <c r="B360" t="s">
-        <v>586</v>
-      </c>
-    </row>
-    <row r="361" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A361" t="s">
-        <v>585</v>
-      </c>
-      <c r="B361" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="362" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A362" t="s">
-        <v>585</v>
-      </c>
-      <c r="B362" t="s">
-        <v>587</v>
-      </c>
-    </row>
-    <row r="363" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A363" t="s">
-        <v>588</v>
-      </c>
-      <c r="B363" t="s">
-        <v>589</v>
-      </c>
-    </row>
-    <row r="364" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A364" t="s">
-        <v>588</v>
-      </c>
-      <c r="B364" t="s">
-        <v>590</v>
-      </c>
-    </row>
-    <row r="365" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="D364" s="2" t="s">
+        <v>584</v>
+      </c>
+    </row>
+    <row r="365" spans="1:4" ht="15" x14ac:dyDescent="0.35">
       <c r="A365" t="s">
-        <v>588</v>
+        <v>393</v>
       </c>
       <c r="B365" t="s">
-        <v>591</v>
-      </c>
-    </row>
-    <row r="366" spans="1:2" x14ac:dyDescent="0.25">
+        <v>25</v>
+      </c>
+      <c r="D365" s="2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="366" spans="1:4" ht="15" x14ac:dyDescent="0.35">
       <c r="A366" t="s">
-        <v>588</v>
+        <v>147</v>
       </c>
       <c r="B366" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="367" spans="1:2" x14ac:dyDescent="0.25">
+        <v>8</v>
+      </c>
+      <c r="D366" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="367" spans="1:4" ht="15" x14ac:dyDescent="0.35">
       <c r="A367" t="s">
-        <v>592</v>
+        <v>322</v>
       </c>
       <c r="B367" t="s">
-        <v>593</v>
-      </c>
-    </row>
-    <row r="368" spans="1:2" x14ac:dyDescent="0.25">
+        <v>75</v>
+      </c>
+      <c r="D367" s="2" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="368" spans="1:4" ht="15" x14ac:dyDescent="0.35">
       <c r="A368" t="s">
-        <v>594</v>
+        <v>483</v>
       </c>
       <c r="B368" t="s">
-        <v>595</v>
-      </c>
-    </row>
-    <row r="369" spans="1:2" x14ac:dyDescent="0.25">
+        <v>484</v>
+      </c>
+      <c r="D368" s="2" t="s">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="369" spans="1:4" ht="15" x14ac:dyDescent="0.35">
       <c r="A369" t="s">
-        <v>594</v>
+        <v>449</v>
       </c>
       <c r="B369" t="s">
-        <v>596</v>
-      </c>
-    </row>
-    <row r="370" spans="1:2" x14ac:dyDescent="0.25">
+        <v>451</v>
+      </c>
+      <c r="D369" s="2" t="s">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="370" spans="1:4" ht="15" x14ac:dyDescent="0.35">
       <c r="A370" t="s">
-        <v>594</v>
+        <v>63</v>
       </c>
       <c r="B370" t="s">
-        <v>597</v>
-      </c>
-    </row>
-    <row r="371" spans="1:2" x14ac:dyDescent="0.25">
+        <v>456</v>
+      </c>
+      <c r="D370" s="2" t="s">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="371" spans="1:4" ht="15" x14ac:dyDescent="0.35">
       <c r="A371" t="s">
-        <v>47</v>
+        <v>143</v>
       </c>
       <c r="B371" t="s">
-        <v>48</v>
+        <v>3</v>
+      </c>
+      <c r="D371" s="2" t="s">
+        <v>3</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:B371" xr:uid="{028BDD65-A128-4FD4-BA04-BDB3123AC29F}"/>
+  <autoFilter ref="A1:B371" xr:uid="{028BDD65-A128-4FD4-BA04-BDB3123AC29F}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:B371">
+      <sortCondition ref="B1:B371"/>
+    </sortState>
+  </autoFilter>
   <phoneticPr fontId="1" type="noConversion"/>
+  <conditionalFormatting sqref="D1:D1046080">
+    <cfRule type="duplicateValues" dxfId="0" priority="3"/>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -9419,158 +10795,648 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5FAD7666-4308-4BA4-9D3F-6873A5A4C7E4}">
-  <dimension ref="A1:B19"/>
+  <dimension ref="A1:F31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B19" sqref="B19"/>
+      <selection activeCell="I9" sqref="I9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>603</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>602</v>
-      </c>
-      <c r="B2" t="s">
+    <row r="1" spans="1:6" ht="15" x14ac:dyDescent="0.35">
+      <c r="A1" s="2" t="s">
+        <v>605</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>606</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="E1" s="2">
+        <v>1</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>604</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" ht="15" x14ac:dyDescent="0.35">
+      <c r="A2" s="2" t="s">
+        <v>607</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>608</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>609</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>609</v>
+      </c>
+      <c r="E2" s="2">
+        <v>1</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>604</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" ht="15" x14ac:dyDescent="0.35">
+      <c r="A3" s="2" t="s">
+        <v>610</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>608</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>611</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>611</v>
+      </c>
+      <c r="E3" s="2">
+        <v>1</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>604</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="15" x14ac:dyDescent="0.35">
+      <c r="A4" s="2" t="s">
+        <v>612</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>608</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>613</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>613</v>
+      </c>
+      <c r="E4" s="2">
+        <v>1</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>604</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" ht="15" x14ac:dyDescent="0.35">
+      <c r="A5" s="2" t="s">
+        <v>653</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>608</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>654</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>654</v>
+      </c>
+      <c r="E5" s="2">
+        <v>1</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>604</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" ht="15" x14ac:dyDescent="0.35">
+      <c r="A6" s="2" t="s">
+        <v>614</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>615</v>
+      </c>
+      <c r="C6" s="2" t="s">
         <v>239</v>
       </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>602</v>
-      </c>
-      <c r="B3" t="s">
+      <c r="D6" s="2" t="s">
+        <v>239</v>
+      </c>
+      <c r="E6" s="2">
+        <v>1</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>604</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" ht="15" x14ac:dyDescent="0.35">
+      <c r="A7" s="2" t="s">
+        <v>616</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>615</v>
+      </c>
+      <c r="C7" s="2" t="s">
         <v>240</v>
       </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>602</v>
-      </c>
-      <c r="B4" t="s">
+      <c r="D7" s="2" t="s">
+        <v>240</v>
+      </c>
+      <c r="E7" s="2">
+        <v>1</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>604</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" ht="15" x14ac:dyDescent="0.35">
+      <c r="A8" s="2" t="s">
+        <v>617</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>615</v>
+      </c>
+      <c r="C8" s="2" t="s">
         <v>241</v>
       </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>602</v>
-      </c>
-      <c r="B5" t="s">
+      <c r="D8" s="2" t="s">
+        <v>241</v>
+      </c>
+      <c r="E8" s="2">
+        <v>1</v>
+      </c>
+      <c r="F8" s="2" t="s">
+        <v>604</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" ht="15" x14ac:dyDescent="0.35">
+      <c r="A9" s="2" t="s">
+        <v>618</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>615</v>
+      </c>
+      <c r="C9" s="2" t="s">
         <v>242</v>
       </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>602</v>
-      </c>
-      <c r="B6" t="s">
-        <v>607</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>605</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>602</v>
-      </c>
-      <c r="B8" t="s">
+      <c r="D9" s="2" t="s">
+        <v>242</v>
+      </c>
+      <c r="E9" s="2">
+        <v>1</v>
+      </c>
+      <c r="F9" s="2" t="s">
         <v>604</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>606</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>602</v>
-      </c>
-      <c r="B10" t="s">
-        <v>610</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>602</v>
-      </c>
-      <c r="B11" t="s">
+    <row r="10" spans="1:6" ht="15" x14ac:dyDescent="0.35">
+      <c r="A10" s="2" t="s">
+        <v>619</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>615</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="E10" s="2">
+        <v>1</v>
+      </c>
+      <c r="F10" s="2" t="s">
+        <v>604</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" ht="15" x14ac:dyDescent="0.35">
+      <c r="A11" s="2" t="s">
+        <v>620</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>615</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>621</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>621</v>
+      </c>
+      <c r="E11" s="2">
+        <v>1</v>
+      </c>
+      <c r="F11" s="2" t="s">
+        <v>622</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" ht="15" x14ac:dyDescent="0.35">
+      <c r="A12" s="2" t="s">
+        <v>623</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>615</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>624</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>624</v>
+      </c>
+      <c r="E12" s="2">
+        <v>1</v>
+      </c>
+      <c r="F12" s="2" t="s">
+        <v>622</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" ht="15" x14ac:dyDescent="0.35">
+      <c r="A13" s="2" t="s">
+        <v>625</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>615</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>626</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>626</v>
+      </c>
+      <c r="E13" s="2">
+        <v>1</v>
+      </c>
+      <c r="F13" s="2" t="s">
+        <v>622</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" ht="15" x14ac:dyDescent="0.35">
+      <c r="A14" s="2" t="s">
+        <v>627</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>615</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>628</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>628</v>
+      </c>
+      <c r="E14" s="2">
+        <v>1</v>
+      </c>
+      <c r="F14" s="2" t="s">
+        <v>622</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" ht="15" x14ac:dyDescent="0.35">
+      <c r="A15" s="2" t="s">
+        <v>629</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>615</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>630</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>630</v>
+      </c>
+      <c r="E15" s="2">
+        <v>1</v>
+      </c>
+      <c r="F15" s="2" t="s">
+        <v>622</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" ht="15" x14ac:dyDescent="0.35">
+      <c r="A16" s="2" t="s">
+        <v>631</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>615</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>632</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>632</v>
+      </c>
+      <c r="E16" s="2">
+        <v>1</v>
+      </c>
+      <c r="F16" s="2" t="s">
+        <v>622</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" ht="15" x14ac:dyDescent="0.35">
+      <c r="A17" s="2" t="s">
+        <v>633</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>615</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>634</v>
+      </c>
+      <c r="D17" s="2" t="s">
+        <v>634</v>
+      </c>
+      <c r="E17" s="2">
+        <v>1</v>
+      </c>
+      <c r="F17" s="2" t="s">
+        <v>622</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" ht="15" x14ac:dyDescent="0.35">
+      <c r="A18" s="2" t="s">
+        <v>635</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>615</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>636</v>
+      </c>
+      <c r="D18" s="2" t="s">
+        <v>636</v>
+      </c>
+      <c r="E18" s="2">
+        <v>1</v>
+      </c>
+      <c r="F18" s="2" t="s">
+        <v>622</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" ht="15" x14ac:dyDescent="0.35">
+      <c r="A19" s="2" t="s">
+        <v>637</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>615</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>638</v>
+      </c>
+      <c r="D19" s="2" t="s">
+        <v>638</v>
+      </c>
+      <c r="E19" s="2">
+        <v>1</v>
+      </c>
+      <c r="F19" s="2" t="s">
+        <v>622</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" ht="15" x14ac:dyDescent="0.35">
+      <c r="A20" s="2" t="s">
+        <v>639</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>615</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>640</v>
+      </c>
+      <c r="D20" s="2" t="s">
+        <v>640</v>
+      </c>
+      <c r="E20" s="2">
+        <v>1</v>
+      </c>
+      <c r="F20" s="2" t="s">
+        <v>622</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" ht="15" x14ac:dyDescent="0.35">
+      <c r="A21" s="2" t="s">
+        <v>641</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>642</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>536</v>
+      </c>
+      <c r="D21" s="2" t="s">
+        <v>536</v>
+      </c>
+      <c r="E21" s="2">
+        <v>1</v>
+      </c>
+      <c r="F21" s="2" t="s">
+        <v>604</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" ht="15" x14ac:dyDescent="0.35">
+      <c r="A22" s="2" t="s">
+        <v>643</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>642</v>
+      </c>
+      <c r="C22" s="2" t="s">
         <v>537</v>
       </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>602</v>
-      </c>
-      <c r="B12" t="s">
+      <c r="D22" s="2" t="s">
+        <v>537</v>
+      </c>
+      <c r="E22" s="2">
+        <v>1</v>
+      </c>
+      <c r="F22" s="2" t="s">
+        <v>604</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" ht="15" x14ac:dyDescent="0.35">
+      <c r="A23" s="2" t="s">
+        <v>644</v>
+      </c>
+      <c r="B23" s="2" t="s">
+        <v>642</v>
+      </c>
+      <c r="C23" s="2" t="s">
         <v>538</v>
       </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>602</v>
-      </c>
-      <c r="B13" t="s">
+      <c r="D23" s="2" t="s">
+        <v>538</v>
+      </c>
+      <c r="E23" s="2">
+        <v>1</v>
+      </c>
+      <c r="F23" s="2" t="s">
+        <v>604</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" ht="15" x14ac:dyDescent="0.35">
+      <c r="A24" s="2" t="s">
+        <v>645</v>
+      </c>
+      <c r="B24" s="2" t="s">
+        <v>642</v>
+      </c>
+      <c r="C24" s="2" t="s">
         <v>539</v>
       </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>602</v>
-      </c>
-      <c r="B14" t="s">
-        <v>611</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>602</v>
-      </c>
-      <c r="B15" t="s">
+      <c r="D24" s="2" t="s">
+        <v>539</v>
+      </c>
+      <c r="E24" s="2">
+        <v>1</v>
+      </c>
+      <c r="F24" s="2" t="s">
+        <v>604</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" ht="15" x14ac:dyDescent="0.35">
+      <c r="A25" s="2" t="s">
+        <v>646</v>
+      </c>
+      <c r="B25" s="2" t="s">
+        <v>642</v>
+      </c>
+      <c r="C25" s="2" t="s">
+        <v>647</v>
+      </c>
+      <c r="D25" s="2" t="s">
+        <v>647</v>
+      </c>
+      <c r="E25" s="2">
+        <v>1</v>
+      </c>
+      <c r="F25" s="2" t="s">
+        <v>604</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" ht="15" x14ac:dyDescent="0.35">
+      <c r="A26" s="2" t="s">
+        <v>648</v>
+      </c>
+      <c r="B26" s="2" t="s">
+        <v>642</v>
+      </c>
+      <c r="C26" s="2" t="s">
         <v>541</v>
       </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
-        <v>602</v>
-      </c>
-      <c r="B16" t="s">
+      <c r="D26" s="2" t="s">
+        <v>541</v>
+      </c>
+      <c r="E26" s="2">
+        <v>1</v>
+      </c>
+      <c r="F26" s="2" t="s">
+        <v>604</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" ht="15" x14ac:dyDescent="0.35">
+      <c r="A27" s="2" t="s">
+        <v>649</v>
+      </c>
+      <c r="B27" s="2" t="s">
+        <v>642</v>
+      </c>
+      <c r="C27" s="2" t="s">
         <v>542</v>
       </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
-        <v>602</v>
-      </c>
-      <c r="B17" t="s">
+      <c r="D27" s="2" t="s">
+        <v>542</v>
+      </c>
+      <c r="E27" s="2">
+        <v>1</v>
+      </c>
+      <c r="F27" s="2" t="s">
+        <v>604</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" ht="15" x14ac:dyDescent="0.35">
+      <c r="A28" s="2" t="s">
+        <v>650</v>
+      </c>
+      <c r="B28" s="2" t="s">
+        <v>642</v>
+      </c>
+      <c r="C28" s="2" t="s">
         <v>543</v>
       </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
-        <v>602</v>
-      </c>
-      <c r="B18" t="s">
+      <c r="D28" s="2" t="s">
+        <v>543</v>
+      </c>
+      <c r="E28" s="2">
+        <v>1</v>
+      </c>
+      <c r="F28" s="2" t="s">
+        <v>604</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" ht="15" x14ac:dyDescent="0.35">
+      <c r="A29" s="2" t="s">
+        <v>651</v>
+      </c>
+      <c r="B29" s="2" t="s">
+        <v>642</v>
+      </c>
+      <c r="C29" s="2" t="s">
         <v>544</v>
       </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
-        <v>602</v>
-      </c>
-      <c r="B19" t="s">
-        <v>612</v>
+      <c r="D29" s="2" t="s">
+        <v>544</v>
+      </c>
+      <c r="E29" s="2">
+        <v>1</v>
+      </c>
+      <c r="F29" s="2" t="s">
+        <v>604</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" ht="15" x14ac:dyDescent="0.35">
+      <c r="A30" s="2" t="s">
+        <v>652</v>
+      </c>
+      <c r="B30" s="2" t="s">
+        <v>642</v>
+      </c>
+      <c r="C30" s="2" t="s">
+        <v>545</v>
+      </c>
+      <c r="D30" s="2" t="s">
+        <v>545</v>
+      </c>
+      <c r="E30" s="2">
+        <v>1</v>
+      </c>
+      <c r="F30" s="2" t="s">
+        <v>604</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" ht="15" x14ac:dyDescent="0.35">
+      <c r="A31" s="2" t="s">
+        <v>652</v>
+      </c>
+      <c r="B31" s="2" t="s">
+        <v>642</v>
+      </c>
+      <c r="C31" s="2" t="s">
+        <v>545</v>
+      </c>
+      <c r="D31" s="2" t="s">
+        <v>545</v>
+      </c>
+      <c r="E31" s="2">
+        <v>1</v>
+      </c>
+      <c r="F31" s="2" t="s">
+        <v>604</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BC9A8C20-CBBE-43DA-9DC4-7C52C4B2FDE8}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
